--- a/output/model_e_relaxed_removed_constraints.xlsx
+++ b/output/model_e_relaxed_removed_constraints.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B245"/>
+  <dimension ref="A1:B802"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,2442 +446,7902 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>inv_190 → inv_159</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr">
         <is>
-          <t>inv_159 → 01_HOOFD_490_1</t>
+          <t>01_HOOFD_380 → 01_HOOFD_430</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>inv_096 → inv_159</t>
+          <t>inv_010 → inv_047</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>inv_121 → 01_HOOFD_490_1</t>
+          <t>01_HOOFD_510_1 → inv_029 → inv_070 → 01_HOOFD_375 → inv_032 → inv_100 → 01_HOOFD_380 → 01_HOOFD_430 → 01_HOOFD_480 → 01_HOOFD_490_1 → inv_126 → inv_060 → 01_HOOFD_510_2 → inv_058 → 01_HOOFD_495 → inv_065 → 01_BB_540 → 01_BB_770 → inv_047</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>inv_123 → inv_159</t>
+          <t>inv_092 → inv_044</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>01_HOOFD_375 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>inv_069 → 01_HOOFD_015</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>inv_160 → inv_159</t>
+          <t>inv_075 → inv_159</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>inv_153 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>inv_004 → 01_HOOFD_015 → 01_HOOFD_020 → inv_086 → 03_GBH_005 → inv_065 → 05_EIND_010 → inv_004 → inv_026 → 01_HOOFD_110 → 01_HOOFD_120 → 01_HOOFD_180 → inv_137 → 08_AWB45_005 → inv_087 → inv_044</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>inv_014 → inv_159</t>
+          <t>inv_070 → inv_047</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>01_HOOFD_010 → 01_HOOFD_490_1</t>
+          <t>inv_058 → 01_HOOFD_015</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>01_HOOFD_430 → inv_159</t>
+          <t>inv_138 → inv_159</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>01_HOOFD_110 → 01_HOOFD_490_1</t>
+          <t>inv_114 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>inv_114 → inv_159</t>
+          <t>01_HOOFD_180 → inv_047</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>01_HOOFD_510_2 → 01_HOOFD_490_1</t>
+          <t>inv_176 → inv_123</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>inv_074 → inv_159</t>
+          <t>inv_191 → inv_159</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>inv_107 → 01_HOOFD_490_1</t>
+          <t>inv_060 → 01_HOOFD_510_1 → inv_065 → 01_BB_540 → 01_BB_770 → inv_047</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>inv_184 → inv_159</t>
+          <t>inv_043 → inv_159</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>inv_051 → inv_166 → 01_HOOFD_490_2 → inv_093 → inv_141 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>inv_045 → 01_HOOFD_010 → inv_010 → 01_HOOFD_011 → inv_027 → 01_HOOFD_015 → 01_HOOFD_020 → inv_086 → 03_GBH_005 → inv_065 → 05_EIND_010 → inv_004 → inv_026 → 01_HOOFD_110 → 01_HOOFD_120 → 01_HOOFD_180 → inv_137 → 08_AWB45_005 → inv_087 → inv_044</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>01_HOOFD_495 → inv_159</t>
+          <t>01_HOOFD_010 → inv_33</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>inv_164 → 01_HOOFD_490_1</t>
+          <t>inv_159 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>inv_178 → inv_159</t>
+          <t>inv_205 → inv_159</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>01_HOOFD_510_2 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>inv_070 → 01_HOOFD_015</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>inv_051 → inv_159</t>
+          <t>01_HOOFD_120 → inv_159</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>05_EIND_010 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>04_BPT_005 → 01_HOOFD_015</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>inv_100 → inv_159</t>
+          <t>inv_049 → inv_047</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>inv_159 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>inv_115 → 01_HOOFD_015</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>01_HOOFD_375 → inv_159</t>
+          <t>inv_122 → inv_044</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>inv_115 → 01_HOOFD_490_1</t>
+          <t>01_HOOFD_375 → inv_031 → 01_HOOFD_380 → 01_HOOFD_430 → inv_034 → inv_050 → 01_HOOFD_480 → 01_HOOFD_490_1 → inv_074 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_080 → 01_HOOFD_510_2 → 01_BB_540 → inv_029</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>inv_136 → inv_159</t>
+          <t>04_BPT_005 → inv_047</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>inv_188 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>inv_14 → 01_HOOFD_030_2</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>01_HOOFD_330 → inv_159</t>
+          <t>inv_007 → inv_044</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>inv_009 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>01_HOOFD_015 → 01_HOOFD_020 → inv_70 → 01_HOOFD_065_2 → 01_HOOFD_065_1 → 01_HOOFD_110 → inv_29 → 01_HOOFD_180 → inv_09 → 01_HOOFD_195 → inv_30 → 01_HOOFD_200 → 01_HOOFD_330 → 09_AH_I_010 → inv_36 → 01_HOOFD_375 → inv_81 → 01_HOOFD_380 → 01_HOOFD_430 → 01_HOOFD_480 → 01_HOOFD_490_1 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_42 → 01_HOOFD_510_1 → inv_87 → inv_33</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>inv_038 → inv_159</t>
+          <t>inv_07 → inv_33</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>01_HOOFD_510_1 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>01_HOOFD_010 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>inv_161 → inv_159</t>
+          <t>inv_70 → inv_33</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>inv_127 → 01_HOOFD_490_1</t>
+          <t>01_HOOFD_480 → 01_HOOFD_015 → 01_HOOFD_020 → inv_086 → 03_GBH_005 → inv_065 → 05_EIND_010 → inv_004 → inv_026 → 01_HOOFD_110 → 01_HOOFD_120 → 01_HOOFD_180 → inv_137 → 08_AWB45_005 → inv_087 → inv_044</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>inv_196 → inv_159</t>
+          <t>inv_021 → inv_029</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>inv_068 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>01_HOOFD_490_1 → inv_123</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>inv_053 → inv_159</t>
+          <t>01_HOOFD_011 → inv_044</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>09_AH_I_010 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>inv_044 → 01_HOOFD_015</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>inv_229 → inv_159</t>
+          <t>01_BB_540 → inv_047</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>inv_153 → 01_HOOFD_490_1</t>
+          <t>01_HOOFD_015 → 01_HOOFD_020</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>inv_119 → inv_159</t>
+          <t>inv_120 → inv_044</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>09_AH_I_010 → 01_HOOFD_490_1</t>
+          <t>inv_111 → inv_100 → 01_HOOFD_010 → 01_HOOFD_011 → inv_115 → 01_HOOFD_020 → 03_GBH_005 → 02_DRZ_010 → 01_HOOFD_050 → inv_092 → inv_053 → inv_105 → 01_HOOFD_120 → inv_044 → 01_HOOFD_180 → 01_HOOFD_200 → inv_001 → inv_011 → 01_HOOFD_330 → 09_AH_I_010 → inv_112 → 01_HOOFD_370 → inv_075 → 11_AH_II_010 → inv_050 → 01_HOOFD_480 → 01_HOOFD_490_1 → inv_074 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_080 → 01_HOOFD_510_2 → 01_BB_540 → inv_029</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>inv_059 → inv_159</t>
+          <t>inv_093 → inv_159</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>inv_174 → 01_HOOFD_490_1</t>
+          <t>inv_10 → inv_85</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>01_HOOFD_011 → inv_159</t>
+          <t>inv_14 → inv_33</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>01_HOOFD_020 → 01_HOOFD_490_1</t>
+          <t>inv_138 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>inv_205 → inv_159</t>
+          <t>inv_056 → inv_029</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>inv_169 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>01_HOOFD_020 → inv_092 → inv_065 → 05_EIND_010 → inv_095 → 02_DRZ_010 → 04_BPT_005 → inv_027 → 01_HOOFD_015 → 01_HOOFD_020 → inv_109 → 01_HOOFD_030_1 → inv_037 → 01_HOOFD_065_1 → inv_097 → inv_026 → 01_HOOFD_110 → 01_HOOFD_120 → 01_HOOFD_180 → inv_137 → 08_AWB45_005 → inv_087 → inv_044</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>01_HOOFD_010 → inv_159</t>
+          <t>inv_30 → inv_33</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>01_HOOFD_480 → 01_HOOFD_490_1</t>
+          <t>inv_106 → 01_HOOFD_510_1</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>inv_115 → inv_159</t>
+          <t>Ship Outside of EU (SO) → Send Bill (SB)</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>01_HOOFD_490_1 → inv_166</t>
+          <t>inv_068 → 01_HOOFD_015 → 01_HOOFD_020 → inv_086 → 03_GBH_005 → inv_065 → 05_EIND_010 → inv_004 → inv_026 → 01_HOOFD_110 → 01_HOOFD_120 → 01_HOOFD_180 → inv_137 → 08_AWB45_005 → inv_087 → inv_044</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>01_HOOFD_510_1 → inv_159</t>
+          <t>inv_046 → inv_047</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>inv_030 → 01_HOOFD_490_1</t>
+          <t>01_HOOFD_020 → 01_HOOFD_510_1 → inv_065 → 01_BB_540 → 01_BB_770 → inv_047</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>inv_102 → inv_159</t>
+          <t>inv_105 → inv_047</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>inv_121 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>inv_066 → 01_HOOFD_375 → inv_031 → 01_HOOFD_380 → 01_HOOFD_430 → inv_034 → inv_050 → 01_HOOFD_480 → 01_HOOFD_490_1 → inv_074 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_080 → 01_HOOFD_510_2 → 01_BB_540 → inv_029</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>inv_012 → inv_159</t>
+          <t>01_BB_540 → inv_044</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>01_HOOFD_180 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>01_HOOFD_430 → 01_HOOFD_480</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>01_HOOFD_101 → inv_159</t>
+          <t>inv_007 → inv_159</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>01_HOOFD_065_2 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>01_HOOFD_065_1 → 02_DRZ_010 → 04_BPT_005 → inv_29 → 01_HOOFD_180 → inv_09 → 01_HOOFD_195 → inv_30 → 01_HOOFD_200 → 01_HOOFD_330 → 09_AH_I_010 → inv_36 → 01_HOOFD_375 → inv_81 → 01_HOOFD_380 → 01_HOOFD_430 → 01_HOOFD_480 → 01_HOOFD_490_1 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_42 → 01_HOOFD_510_1 → inv_87 → inv_33</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>inv_129 → inv_159</t>
+          <t>inv_085 → inv_044</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>inv_059 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>inv_065 → inv_029</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>inv_018 → inv_159</t>
+          <t>inv_059 → inv_159</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>01_HOOFD_065_1 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>inv_007 → inv_123</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>inv_164 → inv_159</t>
+          <t>inv_058 → inv_047</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>01_HOOFD_065_2 → 01_HOOFD_490_1</t>
+          <t>inv_045 → 01_HOOFD_510_1 → inv_065 → 01_BB_540 → 01_BB_770 → inv_047</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>inv_121 → inv_159</t>
+          <t>inv_147 → inv_159</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>inv_149 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>inv_094 → inv_159</t>
+          <t>inv_061 → inv_029</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>inv_048 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>inv_186 → inv_075</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>01_HOOFD_490_2 → inv_159</t>
+          <t>inv_162 → inv_159</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>inv_083 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>inv_056 → 01_HOOFD_015 → 01_HOOFD_020 → inv_086 → 03_GBH_005 → inv_065 → 05_EIND_010 → inv_004 → inv_026 → 01_HOOFD_110 → 01_HOOFD_120 → 01_HOOFD_180 → inv_137 → 08_AWB45_005 → inv_087 → inv_044</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>inv_084 → inv_159</t>
+          <t>inv_097 → inv_044</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>inv_018 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>08_AWB45_005 → 01_HOOFD_015 → 01_HOOFD_020 → inv_086 → 03_GBH_005 → inv_065 → 05_EIND_010 → inv_004 → inv_026 → 01_HOOFD_110 → 01_HOOFD_120 → 01_HOOFD_180 → inv_137 → 08_AWB45_005 → inv_087 → inv_044</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>01_HOOFD_510_2 → inv_159</t>
+          <t>inv_068 → inv_159</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>inv_075 → 01_HOOFD_490_1</t>
+          <t>inv_049 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>inv_218 → inv_159</t>
+          <t>inv_164 → inv_159</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>inv_172 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>01_HOOFD_030_2 → inv_123</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>inv_099 → inv_159</t>
+          <t>01_BB_770 → inv_044</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>inv_032 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>03_GBH_005 → 02_DRZ_010</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>inv_222 → inv_159</t>
+          <t>01_HOOFD_010 → inv_047</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>inv_191 → 01_HOOFD_490_1</t>
+          <t>01_HOOFD_010 → inv_117</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>inv_052 → inv_159</t>
+          <t>inv_083 → inv_159</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>inv_147 → 01_HOOFD_490_1</t>
+          <t>inv_096 → inv_123</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>inv_171 → inv_159</t>
+          <t>inv_222 → inv_159</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>inv_188 → 01_HOOFD_490_1</t>
+          <t>01_HOOFD_011 → inv_115</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>inv_207 → inv_159</t>
+          <t>01_HOOFD_010 → inv_044</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>inv_062 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>inv_075 → 11_AH_II_010</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>01_HOOFD_380 → inv_159</t>
+          <t>Receive Order(RO) → Send Bill (SB)</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>inv_102 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>01_HOOFD_380 → 01_HOOFD_510_1</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>inv_188 → inv_159</t>
+          <t>inv_094 → inv_159</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>01_HOOFD_490_2 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>inv_188 → inv_123</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>05_EIND_010 → inv_159</t>
+          <t>Ship Inside of EU (SE) → Send Bill (SB)</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>01_HOOFD_375 → 01_HOOFD_490_1</t>
+          <t>inv_30 → 01_HOOFD_200 → 01_HOOFD_330 → 09_AH_I_010 → inv_36 → 01_HOOFD_375 → inv_81 → 01_HOOFD_380 → 01_HOOFD_430 → 01_HOOFD_480 → 01_HOOFD_490_1 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_42 → 01_HOOFD_510_1 → inv_87 → inv_33</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>inv_048 → inv_159</t>
+          <t>01_HOOFD_195 → inv_029</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>01_HOOFD_030_2 → 01_HOOFD_490_1</t>
+          <t>inv_01 → inv_39 → inv_37 → 01_HOOFD_010 → inv_12 → 01_HOOFD_011 → 03_GBH_005 → inv_85 → 01_HOOFD_015 → 01_HOOFD_020 → inv_70 → 01_HOOFD_065_2 → 01_HOOFD_065_1 → 01_HOOFD_110 → inv_29 → 01_HOOFD_180 → inv_09 → 01_HOOFD_195 → inv_30 → 01_HOOFD_200 → 01_HOOFD_330 → 09_AH_I_010 → inv_36 → 01_HOOFD_375 → inv_81 → 01_HOOFD_380 → 01_HOOFD_430 → 01_HOOFD_480 → 01_HOOFD_490_1 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_42 → 01_HOOFD_510_1 → inv_87 → inv_33</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>inv_081 → inv_159</t>
+          <t>01_HOOFD_510_1 → inv_33</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>01_HOOFD_370 → 01_HOOFD_490_1</t>
+          <t>inv_115 → 01_HOOFD_015 → 01_HOOFD_020 → inv_086 → 03_GBH_005 → inv_065 → 05_EIND_010 → inv_004 → inv_026 → 01_HOOFD_110 → 01_HOOFD_120 → 01_HOOFD_180 → inv_137 → 08_AWB45_005 → inv_087 → inv_044</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>inv_030 → inv_159</t>
+          <t>01_HOOFD_065_2 → inv_029</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>01_HOOFD_011 → 01_HOOFD_490_1</t>
+          <t>01_HOOFD_480 → 01_HOOFD_510_1</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>01_HOOFD_020 → inv_159</t>
+          <t>inv_030 → inv_159</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>inv_074 → 01_HOOFD_490_1</t>
+          <t>Load Container (LC) → Ship Outside of EU (SO) → Send Bill (SB)</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>inv_158 → inv_159</t>
+          <t>01_HOOFD_011 → inv_159</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>inv_099 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>01_HOOFD_065_1 → 01_HOOFD_030_2</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>inv_159 → inv_159</t>
+          <t>inv_038 → inv_159</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>inv_218 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>01_HOOFD_065_2 → 01_HOOFD_015</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>inv_191 → inv_159</t>
+          <t>inv_161 → inv_159</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>inv_222 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>inv_099 → inv_078</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>inv_150 → inv_159</t>
+          <t>01_HOOFD_065_1 → inv_047</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>inv_186 → 01_HOOFD_490_1</t>
+          <t>01_HOOFD_510_2 → 01_HOOFD_015</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>inv_149 → inv_159</t>
+          <t>inv_102 → inv_159</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>01_HOOFD_490_1 → inv_166 → 01_HOOFD_490_2 → inv_093 → inv_141 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>inv_126 → 01_HOOFD_510_1</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>01_HOOFD_180 → inv_159</t>
+          <t>inv_058 → inv_044</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>01_HOOFD_490_2 → 01_HOOFD_490_1</t>
+          <t>inv_29 → 01_HOOFD_180</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>inv_107 → inv_159</t>
+          <t>01_HOOFD_195 → inv_33</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>inv_080 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>inv_096 → 01_HOOFD_510_1</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>01_HOOFD_030_1 → inv_159</t>
+          <t>01_HOOFD_370 → inv_047</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>01_HOOFD_030_1 → 01_HOOFD_490_1</t>
+          <t>01_HOOFD_180 → inv_07 → inv_30 → 01_HOOFD_200 → 01_HOOFD_330 → 09_AH_I_010 → inv_36 → 01_HOOFD_375 → inv_81 → 01_HOOFD_380 → 01_HOOFD_430 → 01_HOOFD_480 → 01_HOOFD_490_1 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_42 → 01_HOOFD_510_1 → inv_87 → inv_33</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>inv_232 → inv_159</t>
+          <t>inv_039 → inv_029</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>inv_114 → 01_HOOFD_490_1</t>
+          <t>inv_035 → inv_078</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>inv_145 → inv_159</t>
+          <t>inv_123 → inv_159</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>01_HOOFD_510_1 → 01_HOOFD_490_1</t>
+          <t>01_HOOFD_030_2 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>inv_157 → inv_159</t>
+          <t>inv_009 → inv_159</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>inv_051 → inv_166</t>
+          <t>Generate Standard Bill (GB) → Ship Outside of EU (SO) → Send Bill (SB)</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>inv_112 → inv_159</t>
+          <t>inv_141 → inv_159</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>inv_198 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>inv_058 → 01_HOOFD_510_1 → inv_065 → 01_BB_540 → 01_BB_770 → inv_047</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>inv_153 → inv_159</t>
+          <t>inv_171 → inv_159</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>inv_119 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>inv_039 → inv_031</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>inv_049 → inv_159</t>
+          <t>01_HOOFD_015 → inv_044</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>01_HOOFD_200 → 01_HOOFD_490_1</t>
+          <t>inv_012 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>inv_043 → inv_159</t>
+          <t>inv_044 → inv_029</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>inv_043 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>inv_063 → inv_100 → 01_HOOFD_010 → 01_HOOFD_011 → inv_115 → 01_HOOFD_020 → 03_GBH_005 → 02_DRZ_010 → 01_HOOFD_050 → inv_092 → inv_053 → inv_105 → 01_HOOFD_120 → inv_044 → 01_HOOFD_180 → 01_HOOFD_200 → inv_001 → inv_011 → 01_HOOFD_330 → 09_AH_I_010 → inv_112 → 01_HOOFD_370 → inv_075 → 11_AH_II_010 → inv_050 → 01_HOOFD_480 → 01_HOOFD_490_1 → inv_074 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_080 → 01_HOOFD_510_2 → 01_BB_540 → inv_029</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>inv_142 → inv_159</t>
+          <t>09_AH_I_010 → inv_33</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>inv_080 → 01_HOOFD_490_1</t>
+          <t>01_HOOFD_510_2 → 01_BB_540</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>02_DRZ_010 → inv_159</t>
+          <t>inv_016 → inv_047</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>inv_123 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>inv_81 → 01_HOOFD_380 → 01_HOOFD_430 → 01_HOOFD_480 → 01_HOOFD_490_1 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_42 → 01_HOOFD_510_1 → inv_87 → inv_33</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>04_BPT_005 → inv_159</t>
+          <t>01_HOOFD_015 → inv_159</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>inv_194 → 01_HOOFD_490_1</t>
+          <t>01_HOOFD_510_1 → inv_123</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>inv_162 → inv_159</t>
+          <t>inv_019 → inv_047</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>01_HOOFD_495 → 01_HOOFD_490_1</t>
+          <t>Load Container (LC) → Generate Standard Bill (GB) → Send Bill (SB)</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>inv_172 → inv_159</t>
+          <t>inv_035 → inv_029</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>inv_012 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>01_HOOFD_011 → 01_HOOFD_510_1 → inv_065 → 01_BB_540 → 01_BB_770 → inv_047</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>inv_147 → inv_159</t>
+          <t>inv_149 → inv_159</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>inv_149 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>01_HOOFD_180 → 01_HOOFD_015 → 01_HOOFD_020 → inv_086 → 03_GBH_005 → inv_065 → 05_EIND_010 → inv_004 → inv_026 → 01_HOOFD_110 → 01_HOOFD_120 → 01_HOOFD_180 → inv_137 → 08_AWB45_005 → inv_087 → inv_044</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>inv_220 → inv_159</t>
+          <t>Prepare Special Bill (PB) → Send Bill (SB)</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>01_HOOFD_380 → 01_HOOFD_490_1</t>
+          <t>01_HOOFD_120 → inv_123</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>inv_068 → inv_159</t>
+          <t>inv_065 → inv_047</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>01_HOOFD_101 → 01_HOOFD_490_1</t>
+          <t>inv_105 → 01_HOOFD_510_1 → inv_065 → 01_BB_540 → 01_BB_770 → inv_047</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>inv_175 → inv_159</t>
+          <t>01_HOOFD_110 → inv_047</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>inv_166 → 01_HOOFD_490_1</t>
+          <t>inv_046 → 01_HOOFD_510_1</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>inv_062 → inv_159</t>
+          <t>01_HOOFD_050 → inv_047</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>01_HOOFD_010 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>inv_160 → inv_123</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>inv_126 → inv_159</t>
+          <t>inv_062 → inv_029</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>inv_115 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>inv_103 → 01_HOOFD_015 → 01_HOOFD_020 → inv_086 → 03_GBH_005 → inv_065 → 05_EIND_010 → inv_004 → inv_026 → 01_HOOFD_110 → 01_HOOFD_120 → 01_HOOFD_180 → inv_137 → 08_AWB45_005 → inv_087 → inv_044</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>inv_104 → inv_159</t>
+          <t>04_BPT_005 → inv_159</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>inv_232 → 01_HOOFD_490_1</t>
+          <t>inv_218 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>inv_135 → inv_159</t>
+          <t>02_DRZ_010 → inv_029</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>inv_030 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>01_HOOFD_200 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>inv_120 → inv_159</t>
+          <t>inv_112 → inv_029</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>inv_142 → 01_HOOFD_490_1</t>
+          <t>inv_014 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>01_HOOFD_370 → inv_159</t>
+          <t>01_HOOFD_375 → inv_029</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>inv_136 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>01_HOOFD_020 → 01_HOOFD_510_1</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>inv_198 → inv_159</t>
+          <t>inv_069 → inv_044</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>inv_094 → 01_HOOFD_490_1</t>
+          <t>01_HOOFD_490_1 → 01_HOOFD_015 → 01_HOOFD_020 → inv_086 → 03_GBH_005 → inv_065 → 05_EIND_010 → inv_004 → inv_026 → 01_HOOFD_110 → 01_HOOFD_120 → 01_HOOFD_180 → inv_137 → 08_AWB45_005 → inv_087 → inv_044</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>inv_007 → inv_159</t>
+          <t>inv_010 → inv_044</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>inv_014 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>inv_001 → inv_011 → 01_HOOFD_330 → 09_AH_I_010 → inv_112 → 01_HOOFD_370 → inv_075 → 11_AH_II_010 → inv_050 → 01_HOOFD_480 → 01_HOOFD_490_1 → inv_074 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_080 → 01_HOOFD_510_2 → 01_BB_540 → inv_029</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>01_HOOFD_120 → inv_159</t>
+          <t>inv_112 → inv_159</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>inv_081 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>09_AH_I_010 → inv_045 → inv_031 → 01_HOOFD_380 → 01_HOOFD_430 → inv_034 → inv_050 → 01_HOOFD_480 → 01_HOOFD_490_1 → inv_074 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_080 → 01_HOOFD_510_2 → 01_BB_540 → inv_029</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>inv_080 → inv_159</t>
+          <t>01_HOOFD_375 → inv_044</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>inv_160 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>inv_100 → 01_HOOFD_510_1</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>01_HOOFD_195 → inv_159</t>
+          <t>inv_027 → inv_159</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>inv_141 → 01_HOOFD_490_1</t>
+          <t>inv_009 → 01_HOOFD_510_1</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>01_HOOFD_490_1 → inv_159</t>
+          <t>08_AWB45_005 → inv_044</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>inv_127 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>inv_205 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>inv_090 → inv_159</t>
+          <t>03_GBH_005 → inv_044</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>inv_176 → 01_HOOFD_490_1</t>
+          <t>01_HOOFD_495 → 01_HOOFD_015</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>01_HOOFD_065_2 → inv_159</t>
+          <t>01_HOOFD_380 → inv_029</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>inv_126 → 01_HOOFD_490_1</t>
+          <t>inv_048 → inv_123</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>inv_166 → inv_159</t>
+          <t>01_HOOFD_490_1 → inv_029</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>inv_083 → 01_HOOFD_490_1</t>
+          <t>01_BB_770 → 01_HOOFD_015 → 01_HOOFD_020 → inv_086 → 03_GBH_005 → inv_065 → 05_EIND_010 → inv_004 → inv_026 → 01_HOOFD_110 → 01_HOOFD_120 → 01_HOOFD_180 → inv_137 → 08_AWB45_005 → inv_087 → inv_044</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>inv_032 → inv_159</t>
+          <t>03_GBH_005 → inv_047</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>inv_093 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>01_HOOFD_010 → inv_123</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>inv_075 → inv_159</t>
+          <t>inv_172 → inv_159</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>01_HOOFD_195 → 01_HOOFD_490_1</t>
+          <t>Evaluate Size of Order (EO) → Generate Standard Bill (GB) → Send Bill (SB)</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>inv_093 → inv_159</t>
+          <t>01_HOOFD_820 → inv_044</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>inv_138 → 01_HOOFD_490_1</t>
+          <t>11_AH_II_010 → 01_HOOFD_015</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>inv_005 → inv_159</t>
+          <t>inv_100 → inv_159</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>inv_100 → 01_HOOFD_490_1</t>
+          <t>04_BPT_005 → inv_123</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>01_HOOFD_015 → inv_159</t>
+          <t>inv_232 → inv_159</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>inv_009 → 01_HOOFD_490_1</t>
+          <t>01_HOOFD_375 → inv_031</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>09_AH_I_010 → inv_159</t>
+          <t>inv_39 → inv_33</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>inv_232 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>inv_062 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>inv_027 → inv_159</t>
+          <t>05_EIND_010 → inv_044</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>inv_220 → inv_166</t>
+          <t>01_HOOFD_510_1 → 01_HOOFD_015 → 01_HOOFD_020 → inv_086 → 03_GBH_005 → inv_065 → 05_EIND_010 → inv_004 → inv_026 → 01_HOOFD_110 → 01_HOOFD_120 → 01_HOOFD_180 → inv_137 → 08_AWB45_005 → inv_087 → inv_044</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>inv_200 → inv_159</t>
+          <t>inv_048 → inv_159</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>inv_227 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>inv_37 → 02_DRZ_010 → 04_BPT_005 → inv_29 → 01_HOOFD_180 → inv_09 → 01_HOOFD_195 → inv_30 → 01_HOOFD_200 → 01_HOOFD_330 → 09_AH_I_010 → inv_36 → 01_HOOFD_375 → inv_81 → 01_HOOFD_380 → 01_HOOFD_430 → 01_HOOFD_480 → 01_HOOFD_490_1 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_42 → 01_HOOFD_510_1 → inv_87 → inv_33</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>inv_127 → inv_159</t>
+          <t>inv_053 → inv_029</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>inv_226 → 01_HOOFD_490_1</t>
+          <t>01_HOOFD_065_2 → 01_HOOFD_510_1</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>inv_226 → inv_159</t>
+          <t>inv_115 → inv_044</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>inv_196 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>inv_031 → 01_HOOFD_380</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>inv_141 → inv_159</t>
+          <t>01_HOOFD_030_2 → inv_044</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>inv_084 → 01_HOOFD_490_1</t>
+          <t>01_HOOFD_490_2 → inv_123</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>01_HOOFD_110 → inv_159</t>
+          <t>01_BB_770 → inv_047</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>inv_052 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>01_HOOFD_065_2 → inv_078 → inv_044 → 01_HOOFD_180 → 01_HOOFD_200 → inv_001 → inv_011 → 01_HOOFD_330 → 09_AH_I_010 → inv_112 → 01_HOOFD_370 → inv_075 → 11_AH_II_010 → inv_050 → 01_HOOFD_480 → 01_HOOFD_490_1 → inv_074 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_080 → 01_HOOFD_510_2 → 01_BB_540 → inv_029</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>inv_185 → inv_159</t>
+          <t>inv_12 → inv_33</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>inv_140 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>inv_083 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>inv_219 → inv_159</t>
+          <t>01_HOOFD_065_2 → inv_33</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>inv_112 → 01_HOOFD_490_1</t>
+          <t>01_HOOFD_330 → 01_HOOFD_015 → 01_HOOFD_020 → inv_086 → 03_GBH_005 → inv_065 → 05_EIND_010 → inv_004 → inv_026 → 01_HOOFD_110 → 01_HOOFD_120 → 01_HOOFD_180 → inv_137 → 08_AWB45_005 → inv_087 → inv_044</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>inv_009 → inv_159</t>
+          <t>inv_207 → inv_159</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>inv_158 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>inv_105 → inv_078 → inv_044 → 01_HOOFD_180 → 01_HOOFD_200 → inv_001 → inv_011 → 01_HOOFD_330 → 09_AH_I_010 → inv_112 → 01_HOOFD_370 → inv_075 → 11_AH_II_010 → inv_050 → 01_HOOFD_480 → 01_HOOFD_490_1 → inv_074 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_080 → 01_HOOFD_510_2 → 01_BB_540 → inv_029</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>inv_154 → inv_159</t>
+          <t>inv_099 → inv_047</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>inv_068 → 01_HOOFD_490_1</t>
+          <t>inv_121 → inv_123</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>inv_015 → inv_159</t>
+          <t>inv_064 → inv_029</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>inv_048 → 01_HOOFD_490_1</t>
+          <t>inv_082 → 01_HOOFD_015 → 01_HOOFD_020 → inv_086 → 03_GBH_005 → inv_065 → 05_EIND_010 → inv_004 → inv_026 → 01_HOOFD_110 → 01_HOOFD_120 → 01_HOOFD_180 → inv_137 → 08_AWB45_005 → inv_087 → inv_044</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>inv_194 → inv_159</t>
+          <t>01_HOOFD_490_2 → inv_047</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>01_HOOFD_030_1 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>01_HOOFD_195 → inv_123</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>01_HOOFD_480 → inv_159</t>
+          <t>inv_062 → inv_159</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>01_HOOFD_020 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>Ship Inside of EU (SE) → Ship Inside of Germany (SG)</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>01_HOOFD_030_2 → inv_159</t>
+          <t>01_HOOFD_510_1 → inv_047</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>01_HOOFD_480 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>inv_111 → 01_HOOFD_015</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>01_HOOFD_200 → inv_159</t>
+          <t>inv_017 → inv_047</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>inv_107 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>02_DRZ_010 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>01_HOOFD_065_1 → inv_159</t>
+          <t>inv_126 → inv_159</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>inv_038 → inv_158</t>
+          <t>inv_075 → 11_AH_II_010 → inv_050 → 01_HOOFD_480 → 01_HOOFD_490_1 → inv_074 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_080 → 01_HOOFD_510_2 → 01_BB_540 → inv_029</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>inv_140 → inv_159</t>
+          <t>01_HOOFD_010 → inv_029</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>inv_135 → 01_HOOFD_490_1</t>
+          <t>inv_032 → inv_123</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>inv_028 → inv_159</t>
+          <t>inv_107 → inv_159</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>01_HOOFD_200 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>inv_074 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>inv_186 → inv_159</t>
+          <t>inv_060 → inv_047</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>inv_198 → 01_HOOFD_490_1</t>
+          <t>01_HOOFD_030_1 → 01_HOOFD_030_2</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>inv_176 → inv_159</t>
+          <t>inv_102 → inv_044</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>inv_028 → 01_HOOFD_490_1</t>
+          <t>inv_109 → 01_HOOFD_015</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>inv_138 → inv_159</t>
+          <t>inv_114 → inv_159</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>inv_200 → 01_HOOFD_490_1</t>
+          <t>inv_053 → inv_078</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>inv_083 → inv_159</t>
+          <t>01_HOOFD_375 → inv_047</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>01_HOOFD_380 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>inv_064 → 01_HOOFD_015 → 01_HOOFD_020 → inv_086 → 03_GBH_005 → inv_065 → 05_EIND_010 → inv_004 → inv_026 → 01_HOOFD_110 → 01_HOOFD_120 → 01_HOOFD_180 → inv_137 → 08_AWB45_005 → inv_087 → inv_044</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>inv_174 → inv_159</t>
+          <t>inv_056 → inv_047</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>inv_074 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>inv_169 → inv_123</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>inv_169 → inv_159</t>
+          <t>02_DRZ_010 → inv_047</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>01_HOOFD_180 → 01_HOOFD_490_1</t>
+          <t>inv_044 → 01_HOOFD_015 → 01_HOOFD_020 → inv_086 → 03_GBH_005 → inv_065 → 05_EIND_010 → inv_004 → inv_026 → 01_HOOFD_110 → 01_HOOFD_120 → 01_HOOFD_180 → inv_137 → 08_AWB45_005 → inv_087 → inv_044</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
+          <t>01_HOOFD_430 → inv_047</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>inv_42 → 01_HOOFD_510_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>01_HOOFD_430 → inv_159</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>01_HOOFD_490_2 → 01_HOOFD_015 → 01_HOOFD_020 → inv_086 → 03_GBH_005 → inv_065 → 05_EIND_010 → inv_004 → inv_026 → 01_HOOFD_110 → 01_HOOFD_120 → 01_HOOFD_180 → inv_137 → 08_AWB45_005 → inv_087 → inv_044</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>01_HOOFD_015 → inv_33</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>inv_010 → 01_HOOFD_510_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>01_HOOFD_030_1 → inv_159</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>inv_104 → inv_123</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
           <t>inv_227 → inv_159</t>
         </is>
       </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>inv_100 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr"/>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>inv_059 → 01_HOOFD_490_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr"/>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>01_HOOFD_430 → 01_HOOFD_490_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr"/>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>01_HOOFD_330 → 01_HOOFD_490_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr"/>
       <c r="B127" t="inlineStr">
         <is>
-          <t>inv_145 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>inv_021 → inv_115</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="inlineStr"/>
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>inv_190 → inv_159</t>
+        </is>
+      </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>inv_157 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>inv_094 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="inlineStr"/>
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>01_HOOFD_490_2 → inv_044</t>
+        </is>
+      </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>inv_149 → 01_HOOFD_490_1</t>
+          <t>inv_115 → inv_123</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="inlineStr"/>
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>inv_166 → inv_159</t>
+        </is>
+      </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>01_HOOFD_120 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>inv_038 → 01_HOOFD_030_2 → 01_HOOFD_065_2 → inv_037 → 01_HOOFD_065_1 → inv_097 → inv_026 → 01_HOOFD_110 → 01_HOOFD_120 → 01_HOOFD_180 → inv_137 → 08_AWB45_005 → inv_087 → inv_044</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="inlineStr"/>
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>04_BPT_005 → inv_029</t>
+        </is>
+      </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>inv_166 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>Ship Inside of EU (SE) → Ship Inside of Germany (SG) → Send Bill (SB)</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="inlineStr"/>
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>inv_083 → inv_047</t>
+        </is>
+      </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>inv_038 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_141 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>inv_095 → 01_HOOFD_015</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr"/>
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>01_HOOFD_065_1 → inv_029</t>
+        </is>
+      </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>inv_145 → 01_HOOFD_490_1</t>
+          <t>01_HOOFD_011 → inv_027 → 01_HOOFD_015 → 01_HOOFD_020 → inv_086 → 03_GBH_005 → inv_065 → 05_EIND_010 → inv_004 → inv_026 → 01_HOOFD_110 → 01_HOOFD_120 → 01_HOOFD_180 → inv_137 → 08_AWB45_005 → inv_087 → inv_044</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr"/>
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>inv_084 → inv_159</t>
+        </is>
+      </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>inv_104 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>Evaluate Size of Order (EO) → Ship Inside of Germany (SG) → Send Bill (SB)</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="inlineStr"/>
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>inv_85 → inv_33</t>
+        </is>
+      </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>inv_129 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>inv_129 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="inlineStr"/>
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>01_HOOFD_015 → inv_047</t>
+        </is>
+      </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>01_HOOFD_011 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>inv_120 → inv_123</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="inlineStr"/>
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>01_HOOFD_065_1 → inv_044</t>
+        </is>
+      </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>inv_229 → 01_HOOFD_490_1</t>
+          <t>02_DRZ_010 → 01_HOOFD_510_1 → inv_065 → 01_BB_540 → 01_BB_770 → inv_047</t>
         </is>
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="inlineStr"/>
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>02_DRZ_010 → inv_044</t>
+        </is>
+      </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>inv_200 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>05_EIND_010 → 01_HOOFD_015</t>
         </is>
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="inlineStr"/>
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>01_HOOFD_195 → inv_044</t>
+        </is>
+      </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>inv_027 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>01_HOOFD_065_2 → 02_DRZ_010 → 04_BPT_005 → inv_29 → 01_HOOFD_180 → inv_09 → 01_HOOFD_195 → inv_30 → 01_HOOFD_200 → 01_HOOFD_330 → 09_AH_I_010 → inv_36 → 01_HOOFD_375 → inv_81 → 01_HOOFD_380 → 01_HOOFD_430 → 01_HOOFD_480 → 01_HOOFD_490_1 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_42 → 01_HOOFD_510_1 → inv_87 → inv_33</t>
         </is>
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="inlineStr"/>
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>inv_066 → inv_029</t>
+        </is>
+      </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>inv_161 → 01_HOOFD_490_1</t>
+          <t>inv_054 → 01_HOOFD_015 → inv_110 → 04_BPT_005 → inv_035 → 01_HOOFD_065_2 → inv_062 → 01_HOOFD_110 → inv_105 → 01_HOOFD_120 → inv_044 → 01_HOOFD_180 → 01_HOOFD_200 → inv_001 → inv_011 → 01_HOOFD_330 → 09_AH_I_010 → inv_112 → 01_HOOFD_370 → inv_075 → 11_AH_II_010 → inv_050 → 01_HOOFD_480 → 01_HOOFD_490_1 → inv_074 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_080 → 01_HOOFD_510_2 → 01_BB_540 → inv_029</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="inlineStr"/>
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>09_AH_I_010 → inv_044</t>
+        </is>
+      </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>01_HOOFD_065_1 → 01_HOOFD_490_1</t>
+          <t>inv_011 → 01_HOOFD_330</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="inlineStr"/>
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>01_HOOFD_370 → inv_044</t>
+        </is>
+      </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>inv_184 → 01_HOOFD_490_1</t>
+          <t>inv_090 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="inlineStr"/>
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>inv_005 → inv_159</t>
+        </is>
+      </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>inv_161 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>01_HOOFD_195 → inv_30</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="inlineStr"/>
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>01_HOOFD_020 → inv_159</t>
+        </is>
+      </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>inv_190 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>inv_056 → 01_HOOFD_510_1</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="inlineStr"/>
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>inv_121 → inv_159</t>
+        </is>
+      </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>inv_081 → 01_HOOFD_490_1</t>
+          <t>01_HOOFD_820 → 01_HOOFD_015 → 01_HOOFD_020 → inv_086 → 03_GBH_005 → inv_065 → 05_EIND_010 → inv_004 → inv_026 → 01_HOOFD_110 → 01_HOOFD_120 → 01_HOOFD_180 → inv_137 → 08_AWB45_005 → inv_087 → inv_044</t>
         </is>
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="inlineStr"/>
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>inv_229 → inv_159</t>
+        </is>
+      </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>inv_160 → 01_HOOFD_490_1</t>
+          <t>01_HOOFD_065_1 → 01_HOOFD_015</t>
         </is>
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="inlineStr"/>
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>01_HOOFD_510_1 → inv_029</t>
+        </is>
+      </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>inv_227 → 01_HOOFD_490_1</t>
+          <t>01_HOOFD_065_1 → 02_DRZ_010</t>
         </is>
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="inlineStr"/>
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>inv_175 → inv_159</t>
+        </is>
+      </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>inv_207 → 01_HOOFD_490_1</t>
+          <t>01_HOOFD_495 → 01_HOOFD_510_1</t>
         </is>
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="inlineStr"/>
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>09_AH_I_010 → inv_047</t>
+        </is>
+      </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>inv_141 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>inv_39 → 01_HOOFD_030_2 → 02_DRZ_010 → 04_BPT_005 → inv_29 → 01_HOOFD_180 → inv_09 → 01_HOOFD_195 → inv_30 → 01_HOOFD_200 → 01_HOOFD_330 → 09_AH_I_010 → inv_36 → 01_HOOFD_375 → inv_81 → 01_HOOFD_380 → 01_HOOFD_430 → 01_HOOFD_480 → 01_HOOFD_490_1 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_42 → 01_HOOFD_510_1 → inv_87 → inv_33</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="inlineStr"/>
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>inv_176 → inv_159</t>
+        </is>
+      </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>inv_185 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>inv_008 → 01_HOOFD_510_1</t>
         </is>
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="inlineStr"/>
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>inv_129 → inv_159</t>
+        </is>
+      </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>inv_178 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>inv_112 → 01_HOOFD_370</t>
         </is>
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="inlineStr"/>
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>inv_188 → inv_159</t>
+        </is>
+      </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>01_HOOFD_495 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>01_HOOFD_490_2 → 01_HOOFD_015</t>
         </is>
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="inlineStr"/>
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>02_DRZ_010 → inv_33</t>
+        </is>
+      </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>inv_157 → 01_HOOFD_490_1</t>
+          <t>01_HOOFD_370 → 01_HOOFD_375</t>
         </is>
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="inlineStr"/>
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>inv_36 → inv_33</t>
+        </is>
+      </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>inv_219 → 01_HOOFD_490_1</t>
+          <t>inv_133 → 01_HOOFD_015 → 01_HOOFD_020 → inv_086 → 03_GBH_005 → inv_065 → 05_EIND_010 → inv_004 → inv_026 → 01_HOOFD_110 → 01_HOOFD_120 → 01_HOOFD_180 → inv_137 → 08_AWB45_005 → inv_087 → inv_044</t>
         </is>
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="inlineStr"/>
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>11_AH_II_010 → inv_044</t>
+        </is>
+      </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>inv_084 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>inv_112 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
         </is>
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="inlineStr"/>
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>inv_100 → inv_029</t>
+        </is>
+      </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>inv_096 → 01_HOOFD_490_1</t>
+          <t>inv_032 → 01_HOOFD_510_1</t>
         </is>
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="inlineStr"/>
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>inv_117 → inv_044</t>
+        </is>
+      </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>inv_220 → inv_166 → 01_HOOFD_490_2 → inv_093 → inv_141 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>inv_10 → inv_85 → 01_HOOFD_015 → 01_HOOFD_020 → inv_70 → 01_HOOFD_065_2 → 01_HOOFD_065_1 → 01_HOOFD_110 → inv_29 → 01_HOOFD_180 → inv_09 → 01_HOOFD_195 → inv_30 → 01_HOOFD_200 → 01_HOOFD_330 → 09_AH_I_010 → inv_36 → 01_HOOFD_375 → inv_81 → 01_HOOFD_380 → 01_HOOFD_430 → 01_HOOFD_480 → 01_HOOFD_490_1 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_42 → 01_HOOFD_510_1 → inv_87 → inv_33</t>
         </is>
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="inlineStr"/>
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>inv_104 → inv_159</t>
+        </is>
+      </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>inv_169 → 01_HOOFD_490_1</t>
+          <t>inv_075 → inv_123</t>
         </is>
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="inlineStr"/>
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>inv_220 → inv_159</t>
+        </is>
+      </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>inv_176 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>01_HOOFD_020 → 01_HOOFD_030_2</t>
         </is>
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="inlineStr"/>
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>inv_018 → inv_159</t>
+        </is>
+      </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>inv_175 → 01_HOOFD_490_1</t>
+          <t>01_HOOFD_510_2 → 01_HOOFD_015 → 01_HOOFD_020 → inv_086 → 03_GBH_005 → inv_065 → 05_EIND_010 → inv_004 → inv_026 → 01_HOOFD_110 → 01_HOOFD_120 → 01_HOOFD_180 → inv_137 → 08_AWB45_005 → inv_087 → inv_044</t>
         </is>
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="inlineStr"/>
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>01_HOOFD_380 → inv_044</t>
+        </is>
+      </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>inv_205 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>Evaluate Size of Order (EO) → Prepare Special Bill (PB) → Send Bill (SB)</t>
         </is>
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="inlineStr"/>
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>01_HOOFD_510_2 → inv_047</t>
+        </is>
+      </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>inv_005 → 01_HOOFD_490_1</t>
+          <t>01_HOOFD_490_1 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_42 → 01_HOOFD_510_1 → inv_87 → inv_33</t>
         </is>
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="inlineStr"/>
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>inv_198 → inv_159</t>
+        </is>
+      </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>04_BPT_005 → 01_HOOFD_490_1</t>
+          <t>inv_14 → 01_HOOFD_030_2 → 02_DRZ_010 → 04_BPT_005 → inv_29 → 01_HOOFD_180 → inv_09 → 01_HOOFD_195 → inv_30 → 01_HOOFD_200 → 01_HOOFD_330 → 09_AH_I_010 → inv_36 → 01_HOOFD_375 → inv_81 → 01_HOOFD_380 → 01_HOOFD_430 → 01_HOOFD_480 → 01_HOOFD_490_1 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_42 → 01_HOOFD_510_1 → inv_87 → inv_33</t>
         </is>
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="inlineStr"/>
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>inv_158 → inv_159</t>
+        </is>
+      </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>inv_028 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>01_HOOFD_011 → 01_HOOFD_510_1</t>
         </is>
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="inlineStr"/>
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>inv_092 → inv_029</t>
+        </is>
+      </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>inv_171 → 01_HOOFD_490_1</t>
+          <t>01_HOOFD_370 → 01_HOOFD_015 → 01_HOOFD_020 → inv_086 → 03_GBH_005 → inv_065 → 05_EIND_010 → inv_004 → inv_026 → 01_HOOFD_110 → 01_HOOFD_120 → 01_HOOFD_180 → inv_137 → 08_AWB45_005 → inv_087 → inv_044</t>
         </is>
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="inlineStr"/>
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>01_HOOFD_375 → inv_33</t>
+        </is>
+      </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>inv_207 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>01_BB_540 → 01_HOOFD_510_1</t>
         </is>
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="inlineStr"/>
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>inv_009 → inv_047</t>
+        </is>
+      </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>inv_162 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>inv_12 → 02_DRZ_010</t>
         </is>
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="inlineStr"/>
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>inv_194 → inv_159</t>
+        </is>
+      </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>01_HOOFD_430 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>01_HOOFD_480 → 01_HOOFD_510_1 → inv_065 → 01_BB_540 → 01_BB_770 → inv_047</t>
         </is>
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="inlineStr"/>
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>inv_014 → inv_159</t>
+        </is>
+      </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>inv_150 → 01_HOOFD_490_1</t>
+          <t>01_HOOFD_200 → 01_HOOFD_510_1 → inv_065 → 01_BB_540 → 01_BB_770 → inv_047</t>
         </is>
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="inlineStr"/>
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>inv_099 → inv_159</t>
+        </is>
+      </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>inv_053 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>01_HOOFD_375 → 01_HOOFD_015 → 01_HOOFD_020 → inv_086 → 03_GBH_005 → inv_065 → 05_EIND_010 → inv_004 → inv_026 → 01_HOOFD_110 → 01_HOOFD_120 → 01_HOOFD_180 → inv_137 → 08_AWB45_005 → inv_087 → inv_044</t>
         </is>
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="inlineStr"/>
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>inv_174 → inv_159</t>
+        </is>
+      </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>inv_007 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>01_HOOFD_490_1 → 01_HOOFD_490_2</t>
         </is>
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="inlineStr"/>
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>inv_029 → inv_047</t>
+        </is>
+      </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>inv_135 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>inv_049 → inv_123</t>
         </is>
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="inlineStr"/>
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>inv_135 → inv_159</t>
+        </is>
+      </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>inv_120 → 01_HOOFD_490_1</t>
+          <t>inv_222 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
         </is>
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="inlineStr"/>
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>01_BB_540 → inv_029</t>
+        </is>
+      </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>inv_099 → 01_HOOFD_490_1</t>
+          <t>inv_061 → inv_064 → inv_062 → 01_HOOFD_110 → inv_105 → 01_HOOFD_120 → inv_044 → 01_HOOFD_180 → 01_HOOFD_200 → inv_001 → inv_011 → 01_HOOFD_330 → 09_AH_I_010 → inv_112 → 01_HOOFD_370 → inv_075 → 11_AH_II_010 → inv_050 → 01_HOOFD_480 → 01_HOOFD_490_1 → inv_074 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_080 → 01_HOOFD_510_2 → 01_BB_540 → inv_029</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="inlineStr"/>
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>01_HOOFD_490_2 → inv_33</t>
+        </is>
+      </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>inv_136 → 01_HOOFD_490_1</t>
+          <t>inv_085 → 01_HOOFD_195 → inv_011 → 01_HOOFD_330 → 09_AH_I_010 → inv_112 → 01_HOOFD_370 → inv_075 → 11_AH_II_010 → inv_050 → 01_HOOFD_480 → 01_HOOFD_490_1 → inv_074 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_080 → 01_HOOFD_510_2 → 01_BB_540 → inv_029</t>
         </is>
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="inlineStr"/>
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>inv_065 → inv_044</t>
+        </is>
+      </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>inv_104 → 01_HOOFD_490_1</t>
+          <t>inv_065 → inv_029 → inv_070 → 01_HOOFD_375 → inv_032 → inv_100 → 01_HOOFD_380 → 01_HOOFD_430 → 01_HOOFD_480 → 01_HOOFD_490_1 → inv_126 → inv_060 → 01_HOOFD_510_2 → inv_058 → 01_HOOFD_495 → inv_065 → 01_BB_540 → 01_BB_770 → inv_047</t>
         </is>
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="inlineStr"/>
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>inv_154 → inv_159</t>
+        </is>
+      </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>inv_185 → 01_HOOFD_490_1</t>
+          <t>01_HOOFD_011 → inv_123</t>
         </is>
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="inlineStr"/>
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>01_HOOFD_810 → inv_044</t>
+        </is>
+      </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>inv_049 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>inv_021 → inv_115 → 01_HOOFD_020 → 03_GBH_005 → 02_DRZ_010 → 01_HOOFD_050 → inv_092 → inv_053 → inv_105 → 01_HOOFD_120 → inv_044 → 01_HOOFD_180 → 01_HOOFD_200 → inv_001 → inv_011 → 01_HOOFD_330 → 09_AH_I_010 → inv_112 → 01_HOOFD_370 → inv_075 → 11_AH_II_010 → inv_050 → 01_HOOFD_480 → 01_HOOFD_490_1 → inv_074 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_080 → 01_HOOFD_510_2 → 01_BB_540 → inv_029</t>
         </is>
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="inlineStr"/>
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>01_HOOFD_200 → inv_33</t>
+        </is>
+      </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>inv_093 → 01_HOOFD_490_1</t>
+          <t>01_HOOFD_030_2 → inv_14 → 01_HOOFD_030_1 → inv_37 → 01_HOOFD_010 → inv_12 → 01_HOOFD_011 → 03_GBH_005 → inv_85 → 01_HOOFD_015 → 01_HOOFD_020 → inv_70 → 01_HOOFD_065_2 → 01_HOOFD_065_1 → 01_HOOFD_110 → inv_29 → 01_HOOFD_180 → inv_09 → 01_HOOFD_195 → inv_30 → 01_HOOFD_200 → 01_HOOFD_330 → 09_AH_I_010 → inv_36 → 01_HOOFD_375 → inv_81 → 01_HOOFD_380 → 01_HOOFD_430 → 01_HOOFD_480 → 01_HOOFD_490_1 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_42 → 01_HOOFD_510_1 → inv_87 → inv_33</t>
         </is>
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="inlineStr"/>
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>inv_080 → inv_159</t>
+        </is>
+      </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>inv_090 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>01_HOOFD_375 → 01_HOOFD_015</t>
         </is>
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="inlineStr"/>
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>05_EIND_010 → inv_047</t>
+        </is>
+      </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>inv_191 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>inv_137 → 01_HOOFD_015 → 01_HOOFD_020 → inv_086 → 03_GBH_005 → inv_065 → 05_EIND_010 → inv_004 → inv_026 → 01_HOOFD_110 → 01_HOOFD_120 → 01_HOOFD_180 → inv_137 → 08_AWB45_005 → inv_087 → inv_044</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="inlineStr"/>
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>inv_064 → inv_044</t>
+        </is>
+      </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>inv_162 → 01_HOOFD_490_1</t>
+          <t>inv_01 → inv_39</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="inlineStr"/>
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>inv_01 → inv_33</t>
+        </is>
+      </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>01_HOOFD_120 → 01_HOOFD_490_1</t>
+          <t>inv_123 → inv_075</t>
         </is>
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="inlineStr"/>
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>inv_094 → inv_044</t>
+        </is>
+      </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>01_HOOFD_330 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>01_HOOFD_010 → inv_117 → inv_038 → inv_027 → 01_HOOFD_015 → 01_HOOFD_020 → inv_086 → 03_GBH_005 → inv_065 → 05_EIND_010 → inv_004 → inv_026 → 01_HOOFD_110 → 01_HOOFD_120 → 01_HOOFD_180 → inv_137 → 08_AWB45_005 → inv_087 → inv_044</t>
         </is>
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="inlineStr"/>
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>inv_001 → inv_029</t>
+        </is>
+      </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>05_EIND_010 → 01_HOOFD_490_1</t>
+          <t>01_HOOFD_510_1 → inv_87</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="inlineStr"/>
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>inv_095 → inv_044</t>
+        </is>
+      </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>inv_129 → 01_HOOFD_490_1</t>
+          <t>Ship Inside of Germany (SG) → Prepare Special Bill (PB) → Send Bill (SB)</t>
         </is>
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="inlineStr"/>
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>01_HOOFD_011 → inv_029</t>
+        </is>
+      </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>inv_053 → 01_HOOFD_490_1</t>
+          <t>01_HOOFD_050 → 01_HOOFD_510_1</t>
         </is>
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="inlineStr"/>
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>inv_157 → inv_159</t>
+        </is>
+      </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>inv_005 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>01_HOOFD_200 → inv_085 → 01_HOOFD_195 → inv_011 → 01_HOOFD_330 → 09_AH_I_010 → inv_112 → 01_HOOFD_370 → inv_075 → 11_AH_II_010 → inv_050 → 01_HOOFD_480 → 01_HOOFD_490_1 → inv_074 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_080 → 01_HOOFD_510_2 → 01_BB_540 → inv_029</t>
         </is>
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="inlineStr"/>
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>inv_110 → inv_029</t>
+        </is>
+      </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>inv_119 → 01_HOOFD_490_1</t>
+          <t>01_HOOFD_050 → 01_HOOFD_510_1 → inv_065 → 01_BB_540 → 01_BB_770 → inv_047</t>
         </is>
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="inlineStr"/>
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>01_HOOFD_380 → inv_047</t>
+        </is>
+      </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>inv_012 → 01_HOOFD_490_1</t>
+          <t>inv_027 → 01_HOOFD_015</t>
         </is>
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="inlineStr"/>
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>01_HOOFD_065_1 → inv_159</t>
+        </is>
+      </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>inv_150 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>Load Container (LC) → Prepare Special Bill (PB) → Send Bill (SB)</t>
         </is>
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="inlineStr"/>
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>inv_021 → inv_044</t>
+        </is>
+      </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>inv_062 → 01_HOOFD_490_1</t>
+          <t>01_HOOFD_120 → 01_HOOFD_510_1 → inv_065 → 01_BB_540 → 01_BB_770 → inv_047</t>
         </is>
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="inlineStr"/>
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>01_HOOFD_480 → inv_159</t>
+        </is>
+      </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>inv_049 → 01_HOOFD_490_1</t>
+          <t>inv_70 → 01_HOOFD_030_2</t>
         </is>
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="inlineStr"/>
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>inv_082 → inv_044</t>
+        </is>
+      </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>inv_190 → 01_HOOFD_490_1</t>
+          <t>Evaluate Size of Order (EO) → Ship Outside of EU (SO)</t>
         </is>
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="inlineStr"/>
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>inv_028 → inv_159</t>
+        </is>
+      </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>01_HOOFD_370 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>01_HOOFD_380 → 01_HOOFD_430 → inv_034 → inv_050 → 01_HOOFD_480 → 01_HOOFD_490_1 → inv_074 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_080 → 01_HOOFD_510_2 → 01_BB_540 → inv_029</t>
         </is>
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="inlineStr"/>
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>inv_005 → inv_047</t>
+        </is>
+      </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>inv_043 → 01_HOOFD_490_1</t>
+          <t>inv_037 → 01_HOOFD_015</t>
         </is>
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="inlineStr"/>
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>inv_031 → inv_044</t>
+        </is>
+      </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>04_BPT_005 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>02_DRZ_010 → inv_10</t>
         </is>
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="inlineStr"/>
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>01_HOOFD_510_1 → inv_159</t>
+        </is>
+      </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>inv_096 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>03_GBH_005 → 01_HOOFD_030_2 → 02_DRZ_010 → 04_BPT_005 → inv_29 → 01_HOOFD_180 → inv_09 → 01_HOOFD_195 → inv_30 → 01_HOOFD_200 → 01_HOOFD_330 → 09_AH_I_010 → inv_36 → 01_HOOFD_375 → inv_81 → 01_HOOFD_380 → 01_HOOFD_430 → 01_HOOFD_480 → 01_HOOFD_490_1 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_42 → 01_HOOFD_510_1 → inv_87 → inv_33</t>
         </is>
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="inlineStr"/>
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>inv_090 → inv_159</t>
+        </is>
+      </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>inv_226 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>inv_153 → inv_123</t>
         </is>
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="inlineStr"/>
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>inv_044 → inv_047</t>
+        </is>
+      </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>inv_178 → 01_HOOFD_490_1</t>
+          <t>05_EIND_010 → 01_HOOFD_015 → 01_HOOFD_020 → inv_086 → 03_GBH_005 → inv_065 → 05_EIND_010 → inv_004 → inv_026 → 01_HOOFD_110 → 01_HOOFD_120 → 01_HOOFD_180 → inv_137 → 08_AWB45_005 → inv_087 → inv_044</t>
         </is>
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="inlineStr"/>
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>01_HOOFD_120 → inv_044</t>
+        </is>
+      </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>inv_090 → 01_HOOFD_490_1</t>
+          <t>inv_039 → inv_031 → 01_HOOFD_380 → 01_HOOFD_430 → inv_034 → inv_050 → 01_HOOFD_480 → 01_HOOFD_490_1 → inv_074 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_080 → 01_HOOFD_510_2 → 01_BB_540 → inv_029</t>
         </is>
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="inlineStr"/>
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>inv_012 → inv_159</t>
+        </is>
+      </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>inv_027 → 01_HOOFD_490_1</t>
+          <t>inv_031 → 01_HOOFD_015</t>
         </is>
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="inlineStr"/>
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>inv_080 → inv_029</t>
+        </is>
+      </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>inv_014 → 01_HOOFD_490_1</t>
+          <t>01_HOOFD_110 → 01_HOOFD_510_1</t>
         </is>
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="inlineStr"/>
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>01_HOOFD_030_2 → inv_047</t>
+        </is>
+      </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>01_HOOFD_015 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>inv_044 → 01_HOOFD_180</t>
         </is>
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="inlineStr"/>
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>09_AH_I_010 → inv_159</t>
+        </is>
+      </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>inv_147 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>inv_70 → 02_DRZ_010 → 04_BPT_005 → inv_29 → 01_HOOFD_180 → inv_09 → 01_HOOFD_195 → inv_30 → 01_HOOFD_200 → 01_HOOFD_330 → 09_AH_I_010 → inv_36 → 01_HOOFD_375 → inv_81 → 01_HOOFD_380 → 01_HOOFD_430 → 01_HOOFD_480 → 01_HOOFD_490_1 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_42 → 01_HOOFD_510_1 → inv_87 → inv_33</t>
         </is>
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="inlineStr"/>
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>inv_29 → inv_33</t>
+        </is>
+      </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>inv_102 → 01_HOOFD_490_1</t>
+          <t>01_HOOFD_030_1 → 01_HOOFD_030_2 → 02_DRZ_010 → 04_BPT_005 → inv_29 → 01_HOOFD_180 → inv_09 → 01_HOOFD_195 → inv_30 → 01_HOOFD_200 → 01_HOOFD_330 → 09_AH_I_010 → inv_36 → 01_HOOFD_375 → inv_81 → 01_HOOFD_380 → 01_HOOFD_430 → 01_HOOFD_480 → 01_HOOFD_490_1 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_42 → 01_HOOFD_510_1 → inv_87 → inv_33</t>
         </is>
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="inlineStr"/>
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>inv_038 → inv_044</t>
+        </is>
+      </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>inv_171 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>inv_178 → inv_123</t>
         </is>
       </c>
     </row>
     <row r="208">
-      <c r="A208" t="inlineStr"/>
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>01_HOOFD_495 → inv_029</t>
+        </is>
+      </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>inv_052 → 01_HOOFD_490_1</t>
+          <t>inv_127 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
         </is>
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="inlineStr"/>
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>01_HOOFD_490_2 → inv_159</t>
+        </is>
+      </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>inv_174 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>Ship Inside of EU (SE) → Prepare Special Bill (PB)</t>
         </is>
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="inlineStr"/>
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>inv_052 → inv_159</t>
+        </is>
+      </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>02_DRZ_010 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>01_HOOFD_370 → 01_HOOFD_015</t>
         </is>
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="inlineStr"/>
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>01_HOOFD_510_2 → inv_159</t>
+        </is>
+      </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>01_HOOFD_015 → 01_HOOFD_490_1</t>
+          <t>01_HOOFD_110 → 01_HOOFD_015</t>
         </is>
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="inlineStr"/>
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>inv_049 → inv_159</t>
+        </is>
+      </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>inv_094 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>01_HOOFD_370 → 01_HOOFD_510_1</t>
         </is>
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="inlineStr"/>
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>01_HOOFD_020 → inv_044</t>
+        </is>
+      </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>inv_075 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>01_HOOFD_110 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
         </is>
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="inlineStr"/>
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>inv_115 → inv_159</t>
+        </is>
+      </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>inv_032 → 01_HOOFD_490_1</t>
+          <t>inv_172 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
         </is>
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="inlineStr"/>
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>01_HOOFD_030_1 → inv_33</t>
+        </is>
+      </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>01_HOOFD_110 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>inv_093 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
         </is>
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="inlineStr"/>
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>inv_075 → inv_029</t>
+        </is>
+      </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>inv_123 → 01_HOOFD_490_1</t>
+          <t>inv_078 → inv_044</t>
         </is>
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="inlineStr"/>
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>inv_169 → inv_159</t>
+        </is>
+      </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>inv_184 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>inv_007 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
         </is>
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="inlineStr"/>
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>01_HOOFD_430 → inv_044</t>
+        </is>
+      </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>inv_172 → 01_HOOFD_490_1</t>
+          <t>inv_184 → inv_123</t>
         </is>
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="inlineStr"/>
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>inv_054 → inv_029</t>
+        </is>
+      </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>inv_140 → 01_HOOFD_490_1</t>
+          <t>inv_70 → 01_HOOFD_030_2 → 02_DRZ_010 → 04_BPT_005 → inv_29 → 01_HOOFD_180 → inv_09 → 01_HOOFD_195 → inv_30 → 01_HOOFD_200 → 01_HOOFD_330 → 09_AH_I_010 → inv_36 → 01_HOOFD_375 → inv_81 → 01_HOOFD_380 → 01_HOOFD_430 → 01_HOOFD_480 → 01_HOOFD_490_1 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_42 → 01_HOOFD_510_1 → inv_87 → inv_33</t>
         </is>
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="inlineStr"/>
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>inv_109 → inv_044</t>
+        </is>
+      </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>inv_205 → 01_HOOFD_490_1</t>
+          <t>05_EIND_010 → 01_HOOFD_510_1 → inv_065 → 01_BB_540 → 01_BB_770 → inv_047</t>
         </is>
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="inlineStr"/>
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>inv_084 → inv_047</t>
+        </is>
+      </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>01_HOOFD_195 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>01_HOOFD_330 → 01_HOOFD_510_1 → inv_065 → 01_BB_540 → 01_BB_770 → inv_047</t>
         </is>
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="inlineStr"/>
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>inv_051 → inv_159</t>
+        </is>
+      </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>inv_015 → 01_HOOFD_490_1</t>
+          <t>01_BB_770 → 01_HOOFD_510_1 → inv_065 → 01_BB_540 → 01_BB_770 → inv_047</t>
         </is>
       </c>
     </row>
     <row r="223">
-      <c r="A223" t="inlineStr"/>
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>inv_027 → inv_044</t>
+        </is>
+      </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>inv_154 → 01_HOOFD_490_1</t>
+          <t>inv_087 → 01_HOOFD_015</t>
         </is>
       </c>
     </row>
     <row r="224">
-      <c r="A224" t="inlineStr"/>
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>01_HOOFD_120 → inv_029</t>
+        </is>
+      </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>inv_158 → 01_HOOFD_490_1</t>
+          <t>09_AH_I_010 → 01_HOOFD_015 → 01_HOOFD_020 → inv_086 → 03_GBH_005 → inv_065 → 05_EIND_010 → inv_004 → inv_026 → 01_HOOFD_110 → 01_HOOFD_120 → 01_HOOFD_180 → inv_137 → 08_AWB45_005 → inv_087 → inv_044</t>
         </is>
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="inlineStr"/>
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>inv_145 → inv_159</t>
+        </is>
+      </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>inv_126 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>01_HOOFD_495 → inv_42</t>
         </is>
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="inlineStr"/>
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>inv_034 → inv_029</t>
+        </is>
+      </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>01_HOOFD_101 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>inv_019 → 01_HOOFD_510_1 → inv_065 → 01_BB_540 → 01_BB_770 → inv_047</t>
         </is>
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="inlineStr"/>
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>05_EIND_010 → inv_159</t>
+        </is>
+      </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>inv_164 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>inv_147 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
         </is>
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="inlineStr"/>
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>04_BPT_005 → inv_33</t>
+        </is>
+      </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>inv_218 → 01_HOOFD_490_1</t>
+          <t>inv_107 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
         </is>
       </c>
     </row>
     <row r="229">
-      <c r="A229" t="inlineStr"/>
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>inv_056 → inv_044</t>
+        </is>
+      </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>inv_120 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>inv_198 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
         </is>
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="inlineStr"/>
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>inv_140 → inv_159</t>
+        </is>
+      </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>01_HOOFD_030_2 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>inv_164 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
         </is>
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="inlineStr"/>
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>inv_126 → inv_047</t>
+        </is>
+      </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>inv_114 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>inv_038 → 01_HOOFD_030_2</t>
         </is>
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="inlineStr"/>
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>inv_031 → inv_029</t>
+        </is>
+      </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>inv_138 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>Receive Order(RO) → Load Container (LC) → Ship Inside of EU (SE) → Ship Inside of Germany (SG) → Send Bill (SB)</t>
         </is>
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="inlineStr"/>
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>inv_078 → inv_029</t>
+        </is>
+      </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>inv_142 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>inv_171 → inv_123</t>
         </is>
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="inlineStr"/>
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>01_HOOFD_480 → inv_047</t>
+        </is>
+      </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>inv_007 → 01_HOOFD_490_1</t>
+          <t>inv_150 → inv_123</t>
         </is>
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="inlineStr"/>
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>inv_087 → inv_044</t>
+        </is>
+      </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>inv_018 → 01_HOOFD_490_1</t>
+          <t>01_HOOFD_430 → inv_123</t>
         </is>
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="inlineStr"/>
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>inv_184 → inv_159</t>
+        </is>
+      </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>inv_229 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>inv_031 → 01_HOOFD_015 → 01_HOOFD_020 → inv_086 → 03_GBH_005 → inv_065 → 05_EIND_010 → inv_004 → inv_026 → 01_HOOFD_110 → 01_HOOFD_120 → 01_HOOFD_180 → inv_137 → 08_AWB45_005 → inv_087 → inv_044</t>
         </is>
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="inlineStr"/>
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>01_HOOFD_065_1 → inv_33</t>
+        </is>
+      </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>inv_219 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>01_HOOFD_510_1 → 01_HOOFD_490_2</t>
         </is>
       </c>
     </row>
     <row r="238">
-      <c r="A238" t="inlineStr"/>
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>01_HOOFD_065_2 → inv_047</t>
+        </is>
+      </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>inv_196 → 01_HOOFD_490_1</t>
+          <t>02_DRZ_010 → inv_10 → inv_85 → 01_HOOFD_015 → 01_HOOFD_020 → inv_70 → 01_HOOFD_065_2 → 01_HOOFD_065_1 → 01_HOOFD_110 → inv_29 → 01_HOOFD_180 → inv_09 → 01_HOOFD_195 → inv_30 → 01_HOOFD_200 → 01_HOOFD_330 → 09_AH_I_010 → inv_36 → 01_HOOFD_375 → inv_81 → 01_HOOFD_380 → 01_HOOFD_430 → 01_HOOFD_480 → 01_HOOFD_490_1 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_42 → 01_HOOFD_510_1 → inv_87 → inv_33</t>
         </is>
       </c>
     </row>
     <row r="239">
-      <c r="A239" t="inlineStr"/>
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>inv_037 → inv_044</t>
+        </is>
+      </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>inv_222 → 01_HOOFD_490_1</t>
+          <t>inv_052 → inv_123</t>
         </is>
       </c>
     </row>
     <row r="240">
-      <c r="A240" t="inlineStr"/>
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>01_HOOFD_195 → inv_047</t>
+        </is>
+      </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>02_DRZ_010 → 01_HOOFD_490_1</t>
+          <t>inv_123 → 01_HOOFD_015 → 01_HOOFD_020 → inv_086 → 03_GBH_005 → inv_065 → 05_EIND_010 → inv_004 → inv_026 → 01_HOOFD_110 → 01_HOOFD_120 → 01_HOOFD_180 → inv_137 → 08_AWB45_005 → inv_087 → inv_044</t>
         </is>
       </c>
     </row>
     <row r="241">
-      <c r="A241" t="inlineStr"/>
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>inv_026 → inv_044</t>
+        </is>
+      </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>inv_112 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>Ship Inside of EU (SE) → Prepare Special Bill (PB) → Send Bill (SB)</t>
         </is>
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="inlineStr"/>
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>01_HOOFD_430 → inv_029</t>
+        </is>
+      </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>inv_194 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>inv_001 → inv_011</t>
         </is>
       </c>
     </row>
     <row r="243">
-      <c r="A243" t="inlineStr"/>
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Evaluate Size of Order (EO) → Send Bill (SB)</t>
+        </is>
+      </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>inv_154 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>Load Container (LC) → Ship Inside of EU (SE)</t>
         </is>
       </c>
     </row>
     <row r="244">
-      <c r="A244" t="inlineStr"/>
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>01_HOOFD_015 → inv_029</t>
+        </is>
+      </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>inv_015 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>inv_044 → 01_HOOFD_180 → 01_HOOFD_200 → inv_001 → inv_011 → 01_HOOFD_330 → 09_AH_I_010 → inv_112 → 01_HOOFD_370 → inv_075 → 11_AH_II_010 → inv_050 → 01_HOOFD_480 → 01_HOOFD_490_1 → inv_074 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_080 → 01_HOOFD_510_2 → 01_BB_540 → inv_029</t>
         </is>
       </c>
     </row>
     <row r="245">
-      <c r="A245" t="inlineStr"/>
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>01_HOOFD_010 → inv_159</t>
+        </is>
+      </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>inv_175 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_140 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+          <t>inv_097 → 01_HOOFD_015</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>01_HOOFD_510_1 → inv_044</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>inv_083 → 01_HOOFD_510_1 → inv_065 → 01_BB_540 → 01_BB_770 → inv_047</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>inv_074 → inv_159</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>01_HOOFD_015 → inv_021 → inv_115 → 01_HOOFD_020 → 03_GBH_005 → 02_DRZ_010 → 01_HOOFD_050 → inv_092 → inv_053 → inv_105 → 01_HOOFD_120 → inv_044 → 01_HOOFD_180 → 01_HOOFD_200 → inv_001 → inv_011 → 01_HOOFD_330 → 09_AH_I_010 → inv_112 → 01_HOOFD_370 → inv_075 → 11_AH_II_010 → inv_050 → 01_HOOFD_480 → 01_HOOFD_490_1 → inv_074 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_080 → 01_HOOFD_510_2 → 01_BB_540 → inv_029</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>01_HOOFD_330 → inv_047</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>inv_080 → 01_HOOFD_510_2 → 01_BB_540 → inv_029</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>01_HOOFD_330 → inv_159</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>03_GBH_005 → 01_HOOFD_510_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>inv_81 → inv_33</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Receive Order(RO) → Evaluate Size of Order (EO) → Generate Standard Bill (GB) → Send Bill (SB)</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>01_HOOFD_510_2 → inv_029</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>01_HOOFD_810 → 01_HOOFD_015</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>01_HOOFD_200 → inv_047</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>inv_188 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>inv_119 → inv_159</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>01_HOOFD_110 → inv_29 → 01_HOOFD_180 → inv_09 → 01_HOOFD_195 → inv_30 → 01_HOOFD_200 → 01_HOOFD_330 → 09_AH_I_010 → inv_36 → 01_HOOFD_375 → inv_81 → 01_HOOFD_380 → 01_HOOFD_430 → 01_HOOFD_480 → 01_HOOFD_490_1 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_42 → 01_HOOFD_510_1 → inv_87 → inv_33</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>02_DRZ_010 → inv_159</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>inv_017 → 01_HOOFD_510_1 → inv_065 → 01_BB_540 → 01_BB_770 → inv_047</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>inv_136 → inv_159</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>inv_147 → inv_123</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>inv_123 → inv_044</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>inv_014 → inv_123</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>inv_045 → inv_029</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>09_AH_I_010 → inv_045</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>inv_011 → inv_029</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>inv_142 → inv_123</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>inv_218 → inv_159</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>inv_36 → 01_HOOFD_370</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>inv_053 → inv_159</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>inv_080 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>01_HOOFD_510_2 → inv_33</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>01_HOOFD_110 → inv_078</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>01_HOOFD_490_1 → inv_047</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>inv_120 → 01_HOOFD_015</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>inv_178 → inv_159</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>inv_010 → 01_HOOFD_011 → inv_027 → 01_HOOFD_015 → 01_HOOFD_020 → inv_086 → 03_GBH_005 → inv_065 → 05_EIND_010 → inv_004 → inv_026 → 01_HOOFD_110 → 01_HOOFD_120 → 01_HOOFD_180 → inv_137 → 08_AWB45_005 → inv_087 → inv_044</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>01_HOOFD_180 → inv_33</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>01_HOOFD_020 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>04_BPT_005 → inv_044</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>01_HOOFD_200 → 01_HOOFD_330</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>01_HOOFD_380 → inv_33</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>01_HOOFD_510_2 → 01_BB_540 → inv_029</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>01_HOOFD_110 → inv_33</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>inv_096 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>01_HOOFD_030_2 → inv_33</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>inv_115 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>inv_081 → inv_159</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>inv_137 → 01_HOOFD_015</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>inv_186 → inv_159</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>inv_111 → 01_HOOFD_015 → 01_HOOFD_020 → inv_086 → 03_GBH_005 → inv_065 → 05_EIND_010 → inv_004 → inv_026 → 01_HOOFD_110 → 01_HOOFD_120 → 01_HOOFD_180 → inv_137 → 08_AWB45_005 → inv_087 → inv_044</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>inv_044 → inv_044</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>01_HOOFD_480 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>inv_37 → inv_33</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>inv_021 → 01_HOOFD_015 → 01_HOOFD_020 → inv_086 → 03_GBH_005 → inv_065 → 05_EIND_010 → inv_004 → inv_026 → 01_HOOFD_110 → 01_HOOFD_120 → 01_HOOFD_180 → inv_137 → 08_AWB45_005 → inv_087 → inv_044</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>inv_153 → inv_159</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>inv_120 → 01_HOOFD_015 → 01_HOOFD_020 → inv_086 → 03_GBH_005 → inv_065 → 05_EIND_010 → inv_004 → inv_026 → 01_HOOFD_110 → 01_HOOFD_120 → 01_HOOFD_180 → inv_137 → 08_AWB45_005 → inv_087 → inv_044</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>01_HOOFD_370 → inv_33</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>inv_158 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>inv_004 → inv_044</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>01_HOOFD_011 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>inv_137 → inv_044</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>inv_018 → inv_123</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>01_HOOFD_370 → inv_029</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>inv_058 → 01_HOOFD_015 → 01_HOOFD_020 → inv_086 → 03_GBH_005 → inv_065 → 05_EIND_010 → inv_004 → inv_026 → 01_HOOFD_110 → 01_HOOFD_120 → 01_HOOFD_180 → inv_137 → 08_AWB45_005 → inv_087 → inv_044</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>01_HOOFD_030_1 → inv_047</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Ship Inside of EU (SE) → Generate Standard Bill (GB)</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>01_HOOFD_370 → inv_159</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>inv_169 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>inv_159 → inv_159</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>inv_031 → 01_HOOFD_380 → 01_HOOFD_430 → inv_034 → inv_050 → 01_HOOFD_480 → 01_HOOFD_490_1 → inv_074 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_080 → 01_HOOFD_510_2 → 01_BB_540 → inv_029</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>01_HOOFD_200 → inv_044</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>inv_85 → 01_HOOFD_030_2 → 02_DRZ_010 → 04_BPT_005 → inv_29 → 01_HOOFD_180 → inv_09 → 01_HOOFD_195 → inv_30 → 01_HOOFD_200 → 01_HOOFD_330 → 09_AH_I_010 → inv_36 → 01_HOOFD_375 → inv_81 → 01_HOOFD_380 → 01_HOOFD_430 → 01_HOOFD_480 → 01_HOOFD_490_1 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_42 → 01_HOOFD_510_1 → inv_87 → inv_33</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>inv_050 → inv_029</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>01_HOOFD_010 → 01_HOOFD_030_2 → 02_DRZ_010 → 04_BPT_005 → inv_29 → 01_HOOFD_180 → inv_09 → 01_HOOFD_195 → inv_30 → 01_HOOFD_200 → 01_HOOFD_330 → 09_AH_I_010 → inv_36 → 01_HOOFD_375 → inv_81 → 01_HOOFD_380 → 01_HOOFD_430 → 01_HOOFD_480 → 01_HOOFD_490_1 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_42 → 01_HOOFD_510_1 → inv_87 → inv_33</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>01_HOOFD_375 → inv_159</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>inv_034 → inv_050</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>01_HOOFD_490_1 → inv_044</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>inv_226 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>inv_104 → inv_044</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>inv_129 → inv_123</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>09_AH_I_010 → inv_029</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>Ship Inside of Germany (SG) → Generate Standard Bill (GB) → Send Bill (SB)</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>inv_080 → inv_047</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>01_HOOFD_120 → 01_HOOFD_510_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>01_HOOFD_495 → inv_047</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>01_HOOFD_495 → inv_42 → 01_HOOFD_510_1 → inv_87 → inv_33</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Ship Inside of Germany (SG) → Send Bill (SB)</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>inv_12 → 02_DRZ_010 → 04_BPT_005 → inv_29 → 01_HOOFD_180 → inv_09 → 01_HOOFD_195 → inv_30 → 01_HOOFD_200 → 01_HOOFD_330 → 09_AH_I_010 → inv_36 → 01_HOOFD_375 → inv_81 → 01_HOOFD_380 → 01_HOOFD_430 → 01_HOOFD_480 → 01_HOOFD_490_1 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_42 → 01_HOOFD_510_1 → inv_87 → inv_33</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>01_HOOFD_030_2 → inv_159</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>09_AH_I_010 → inv_36</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>inv_106 → inv_047</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>01_HOOFD_120 → inv_078</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>inv_068 → inv_044</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>inv_068 → inv_123</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>01_HOOFD_330 → inv_044</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>inv_094 → 01_HOOFD_015 → 01_HOOFD_020 → inv_086 → 03_GBH_005 → inv_065 → 05_EIND_010 → inv_004 → inv_026 → 01_HOOFD_110 → 01_HOOFD_120 → 01_HOOFD_180 → inv_137 → 08_AWB45_005 → inv_087 → inv_044</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>inv_142 → inv_159</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>inv_123 → inv_075 → inv_178 → inv_196 → inv_018 → inv_145 → inv_159</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>inv_105 → inv_029</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>inv_178 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>inv_09 → inv_33</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>01_HOOFD_030_2 → 01_HOOFD_015</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>01_HOOFD_065_2 → inv_044</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>01_HOOFD_510_1 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_080 → 01_HOOFD_510_2 → 01_BB_540 → inv_029</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>inv_120 → inv_159</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>01_HOOFD_110 → inv_123</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>01_HOOFD_195 → inv_159</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>01_HOOFD_030_2 → 01_HOOFD_015 → 01_HOOFD_020 → inv_086 → 03_GBH_005 → inv_065 → 05_EIND_010 → inv_004 → inv_026 → 01_HOOFD_110 → 01_HOOFD_120 → 01_HOOFD_180 → inv_137 → 08_AWB45_005 → inv_087 → inv_044</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>01_HOOFD_495 → inv_044</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>Load Container (LC) → Generate Standard Bill (GB)</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>inv_096 → inv_159</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>01_HOOFD_020 → 02_DRZ_010 → 04_BPT_005 → inv_29 → 01_HOOFD_180 → inv_09 → 01_HOOFD_195 → inv_30 → 01_HOOFD_200 → 01_HOOFD_330 → 09_AH_I_010 → inv_36 → 01_HOOFD_375 → inv_81 → 01_HOOFD_380 → 01_HOOFD_430 → 01_HOOFD_480 → 01_HOOFD_490_1 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_42 → 01_HOOFD_510_1 → inv_87 → inv_33</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>inv_063 → inv_029</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>inv_100 → 01_HOOFD_010 → 01_HOOFD_011 → inv_115 → 01_HOOFD_020 → 03_GBH_005 → 02_DRZ_010 → 01_HOOFD_050 → inv_092 → inv_053 → inv_105 → 01_HOOFD_120 → inv_044 → 01_HOOFD_180 → 01_HOOFD_200 → inv_001 → inv_011 → 01_HOOFD_330 → 09_AH_I_010 → inv_112 → 01_HOOFD_370 → inv_075 → 11_AH_II_010 → inv_050 → 01_HOOFD_480 → 01_HOOFD_490_1 → inv_074 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_080 → 01_HOOFD_510_2 → 01_BB_540 → inv_029</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>01_HOOFD_490_1 → inv_159</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>inv_136 → inv_123</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>inv_196 → inv_159</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>01_HOOFD_330 → 09_AH_I_010 → inv_112 → 01_HOOFD_370 → inv_075 → 11_AH_II_010 → inv_050 → 01_HOOFD_480 → 01_HOOFD_490_1 → inv_074 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_080 → 01_HOOFD_510_2 → 01_BB_540 → inv_029</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>01_HOOFD_011 → inv_33</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>02_DRZ_010 → 01_HOOFD_015</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>inv_085 → inv_029</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>01_HOOFD_065_2 → 01_HOOFD_030_2 → 02_DRZ_010 → 04_BPT_005 → inv_29 → 01_HOOFD_180 → inv_09 → 01_HOOFD_195 → inv_30 → 01_HOOFD_200 → 01_HOOFD_330 → 09_AH_I_010 → inv_36 → 01_HOOFD_375 → inv_81 → 01_HOOFD_380 → 01_HOOFD_430 → 01_HOOFD_480 → 01_HOOFD_490_1 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_42 → 01_HOOFD_510_1 → inv_87 → inv_33</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>inv_111 → inv_044</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>03_GBH_005 → 01_HOOFD_030_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Load Container (LC) → Send Bill (SB)</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>inv_065 → 01_HOOFD_015 → 01_HOOFD_020 → inv_086 → 03_GBH_005 → inv_065 → 05_EIND_010 → inv_004 → inv_026 → 01_HOOFD_110 → 01_HOOFD_120 → 01_HOOFD_180 → inv_137 → 08_AWB45_005 → inv_087 → inv_044</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>inv_127 → inv_159</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>inv_080 → 01_HOOFD_510_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>inv_10 → inv_33</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>inv_157 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>01_HOOFD_065_2 → inv_159</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>inv_053 → inv_123</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>01_HOOFD_110 → inv_029</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>01_HOOFD_101 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>inv_074 → inv_029</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>inv_12 → 01_HOOFD_030_2 → 02_DRZ_010 → 04_BPT_005 → inv_29 → 01_HOOFD_180 → inv_09 → 01_HOOFD_195 → inv_30 → 01_HOOFD_200 → 01_HOOFD_330 → 09_AH_I_010 → inv_36 → 01_HOOFD_375 → inv_81 → 01_HOOFD_380 → 01_HOOFD_430 → 01_HOOFD_480 → 01_HOOFD_490_1 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_42 → 01_HOOFD_510_1 → inv_87 → inv_33</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>01_HOOFD_490_2 → inv_029</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>inv_175 → inv_123</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>inv_062 → inv_044</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>inv_100 → 01_HOOFD_010</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>01_HOOFD_480 → inv_044</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>inv_140 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>inv_150 → inv_159</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>inv_051 → 01_HOOFD_510_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>01_HOOFD_510_2 → inv_044</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>01_HOOFD_200 → inv_085</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>01_HOOFD_101 → inv_159</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>inv_70 → 02_DRZ_010</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>inv_111 → inv_029</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>inv_121 → 01_HOOFD_510_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>inv_121 → inv_047</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>01_HOOFD_370 → 01_HOOFD_375 → inv_81 → 01_HOOFD_380 → 01_HOOFD_430 → 01_HOOFD_480 → 01_HOOFD_490_1 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_42 → 01_HOOFD_510_1 → inv_87 → inv_33</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>01_HOOFD_110 → inv_044</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>inv_008 → 01_HOOFD_510_1 → inv_065 → 01_BB_540 → 01_BB_770 → inv_047</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>inv_185 → inv_159</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>inv_044 → 01_HOOFD_510_1 → inv_065 → 01_BB_540 → 01_BB_770 → inv_047</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>01_HOOFD_020 → inv_047</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>inv_136 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>01_HOOFD_120 → inv_047</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>inv_186 → inv_075 → inv_178 → inv_196 → inv_018 → inv_145 → inv_159</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>inv_070 → inv_044</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>01_BB_540 → 01_HOOFD_510_1 → inv_065 → 01_BB_540 → 01_BB_770 → inv_047</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>inv_87 → inv_33</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>inv_220 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>01_HOOFD_330 → inv_33</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>01_HOOFD_495 → 01_HOOFD_510_1 → inv_080 → 01_HOOFD_510_2 → 01_BB_540 → inv_029</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>01_HOOFD_480 → inv_33</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>01_HOOFD_480 → 01_HOOFD_015</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>01_HOOFD_050 → inv_029</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>01_HOOFD_510_1 → inv_029</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>inv_42 → inv_33</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>inv_100 → inv_123</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>inv_025 → inv_047</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>inv_081 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>inv_045 → inv_047</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>01_HOOFD_380 → 01_HOOFD_015 → 01_HOOFD_020 → inv_086 → 03_GBH_005 → inv_065 → 05_EIND_010 → inv_004 → inv_026 → 01_HOOFD_110 → 01_HOOFD_120 → 01_HOOFD_180 → inv_137 → 08_AWB45_005 → inv_087 → inv_044</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>inv_103 → inv_044</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>inv_154 → inv_123</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>01_HOOFD_180 → inv_029</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>03_GBH_005 → 01_HOOFD_510_1 → inv_065 → 01_BB_540 → 01_BB_770 → inv_047</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>inv_047 → inv_047</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>inv_044 → 01_HOOFD_510_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>inv_051 → inv_047</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>01_HOOFD_030_1 → 01_HOOFD_510_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>inv_096 → inv_047</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>01_HOOFD_030_1 → 01_HOOFD_015</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>01_HOOFD_020 → inv_33</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>04_BPT_005 → inv_035</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>01_HOOFD_180 → inv_159</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>inv_102 → 01_HOOFD_015 → 01_HOOFD_020 → inv_086 → 03_GBH_005 → inv_065 → 05_EIND_010 → inv_004 → inv_026 → 01_HOOFD_110 → 01_HOOFD_120 → 01_HOOFD_180 → inv_137 → 08_AWB45_005 → inv_087 → inv_044</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>inv_226 → inv_159</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>01_BB_540 → 01_HOOFD_015</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>01_HOOFD_011 → inv_047</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>inv_185 → inv_123</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>01_HOOFD_495 → inv_159</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>inv_37 → 01_HOOFD_030_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>inv_160 → inv_159</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>01_HOOFD_375 → 01_HOOFD_510_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>inv_100 → inv_047</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>inv_074 → 01_HOOFD_510_1 → inv_080 → 01_HOOFD_510_2 → 01_BB_540 → inv_029</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>01_HOOFD_495 → inv_33</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>01_HOOFD_370 → inv_81 → 01_HOOFD_380 → 01_HOOFD_430 → 01_HOOFD_480 → 01_HOOFD_490_1 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_42 → 01_HOOFD_510_1 → inv_87 → inv_33</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>inv_115 → inv_029</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>Prepare Special Bill (PB) → Ship Inside of Germany (SG)</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>inv_086 → inv_047</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>inv_062 → inv_078</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Generate Standard Bill (GB) → Send Bill (SB)</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>01_HOOFD_195 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>inv_200 → inv_159</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>inv_104 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>01_HOOFD_430 → inv_33</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>inv_092 → inv_053 → inv_105 → 01_HOOFD_120 → inv_044 → 01_HOOFD_180 → 01_HOOFD_200 → inv_001 → inv_011 → 01_HOOFD_330 → 09_AH_I_010 → inv_112 → 01_HOOFD_370 → inv_075 → 11_AH_II_010 → inv_050 → 01_HOOFD_480 → 01_HOOFD_490_1 → inv_074 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_080 → 01_HOOFD_510_2 → 01_BB_540 → inv_029</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>01_HOOFD_330 → inv_029</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>01_HOOFD_495 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>inv_101 → inv_047</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>01_HOOFD_510_1 → 01_HOOFD_015</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>01_HOOFD_380 → inv_159</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>inv_029 → 01_HOOFD_510_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>inv_079 → inv_029</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>inv_166 → inv_123</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>inv_032 → inv_047</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>inv_056 → inv_079 → 01_HOOFD_065_1 → inv_061 → inv_064 → inv_062 → 01_HOOFD_110 → inv_105 → 01_HOOFD_120 → inv_044 → 01_HOOFD_180 → 01_HOOFD_200 → inv_001 → inv_011 → 01_HOOFD_330 → 09_AH_I_010 → inv_112 → 01_HOOFD_370 → inv_075 → 11_AH_II_010 → inv_050 → 01_HOOFD_480 → 01_HOOFD_490_1 → inv_074 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_080 → 01_HOOFD_510_2 → 01_BB_540 → inv_029</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>01_HOOFD_480 → inv_029</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>inv_051 → inv_123</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>01_HOOFD_200 → inv_159</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>01_HOOFD_180 → 01_HOOFD_200 → inv_001 → inv_011 → 01_HOOFD_330 → 09_AH_I_010 → inv_112 → 01_HOOFD_370 → inv_075 → 11_AH_II_010 → inv_050 → 01_HOOFD_480 → 01_HOOFD_490_1 → inv_074 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_080 → 01_HOOFD_510_2 → 01_BB_540 → inv_029</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>01_HOOFD_020 → inv_029</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>inv_045 → inv_031 → 01_HOOFD_380 → 01_HOOFD_430 → inv_034 → inv_050 → 01_HOOFD_480 → 01_HOOFD_490_1 → inv_074 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_080 → 01_HOOFD_510_2 → 01_BB_540 → inv_029</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>inv_032 → inv_159</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>inv_121 → 01_HOOFD_510_1 → inv_065 → 01_BB_540 → 01_BB_770 → inv_047</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>inv_008 → inv_047</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>02_DRZ_010 → inv_14 → 01_HOOFD_030_1 → inv_37 → 01_HOOFD_010 → inv_12 → 01_HOOFD_011 → 03_GBH_005 → inv_85 → 01_HOOFD_015 → 01_HOOFD_020 → inv_70 → 01_HOOFD_065_2 → 01_HOOFD_065_1 → 01_HOOFD_110 → inv_29 → 01_HOOFD_180 → inv_09 → 01_HOOFD_195 → inv_30 → 01_HOOFD_200 → 01_HOOFD_330 → 09_AH_I_010 → inv_36 → 01_HOOFD_375 → inv_81 → 01_HOOFD_380 → 01_HOOFD_430 → 01_HOOFD_480 → 01_HOOFD_490_1 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_42 → 01_HOOFD_510_1 → inv_87 → inv_33</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>inv_086 → inv_044</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>inv_096 → 01_HOOFD_510_1 → inv_065 → 01_BB_540 → 01_BB_770 → inv_047</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>01_HOOFD_490_1 → inv_33</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>01_HOOFD_180 → 01_HOOFD_200</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>inv_078 → inv_047</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>01_HOOFD_015 → inv_123</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>01_HOOFD_180 → inv_044</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>inv_099 → inv_123</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>03_GBH_005 → inv_029</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>inv_106 → 01_HOOFD_510_1 → inv_065 → 01_BB_540 → 01_BB_770 → inv_047</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>01_HOOFD_030_1 → inv_044</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>inv_085 → 01_HOOFD_015</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>01_HOOFD_200 → inv_029</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>01_HOOFD_065_1 → 01_HOOFD_510_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>03_GBH_005 → inv_33</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>inv_063 → inv_100</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>inv_015 → inv_159</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>inv_115 → 01_HOOFD_020</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>11_AH_II_010 → inv_029</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>01_HOOFD_490_1 → inv_074</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>inv_045 → inv_044</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>01_HOOFD_030_1 → 01_HOOFD_510_1 → inv_065 → 01_BB_540 → 01_BB_770 → inv_047</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>inv_133 → inv_044</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>01_HOOFD_430 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>01_HOOFD_110 → inv_159</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>inv_107 → inv_123</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>inv_219 → inv_159</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>inv_005 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr"/>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>inv_068 → 01_HOOFD_015</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr"/>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>01_HOOFD_010 → 01_HOOFD_030_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr"/>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>04_BPT_005 → 01_HOOFD_510_1 → inv_065 → 01_BB_540 → 01_BB_770 → inv_047</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr"/>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>inv_150 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr"/>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>inv_174 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr"/>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>01_HOOFD_495 → 01_HOOFD_510_1 → inv_065 → 01_BB_540 → 01_BB_770 → inv_047</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr"/>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>01_HOOFD_180 → inv_07</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr"/>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>inv_37 → 01_HOOFD_030_2 → 02_DRZ_010 → 04_BPT_005 → inv_29 → 01_HOOFD_180 → inv_09 → 01_HOOFD_195 → inv_30 → 01_HOOFD_200 → 01_HOOFD_330 → 09_AH_I_010 → inv_36 → 01_HOOFD_375 → inv_81 → 01_HOOFD_380 → 01_HOOFD_430 → 01_HOOFD_480 → 01_HOOFD_490_1 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_42 → 01_HOOFD_510_1 → inv_87 → inv_33</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr"/>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>inv_229 → inv_123</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr"/>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>inv_082 → 01_HOOFD_015</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr"/>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>01_HOOFD_010 → 01_HOOFD_510_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr"/>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>01_HOOFD_065_2 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr"/>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>inv_101 → 01_HOOFD_510_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr"/>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>inv_12 → 01_HOOFD_030_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr"/>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>11_AH_II_010 → 01_HOOFD_015 → 01_HOOFD_020 → inv_086 → 03_GBH_005 → inv_065 → 05_EIND_010 → inv_004 → inv_026 → 01_HOOFD_110 → 01_HOOFD_120 → 01_HOOFD_180 → inv_137 → 08_AWB45_005 → inv_087 → inv_044</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr"/>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>inv_133 → 01_HOOFD_015</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr"/>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>01_HOOFD_480 → 01_HOOFD_490_1 → inv_074 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_080 → 01_HOOFD_510_2 → 01_BB_540 → inv_029</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr"/>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>Prepare Special Bill (PB) → Ship Outside of EU (SO) → Send Bill (SB)</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr"/>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>Ship Inside of EU (SE) → Generate Standard Bill (GB) → Send Bill (SB)</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr"/>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>inv_087 → 01_HOOFD_015 → 01_HOOFD_020 → inv_086 → 03_GBH_005 → inv_065 → 05_EIND_010 → inv_004 → inv_026 → 01_HOOFD_110 → 01_HOOFD_120 → 01_HOOFD_180 → inv_137 → 08_AWB45_005 → inv_087 → inv_044</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr"/>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>inv_110 → 04_BPT_005 → inv_035 → 01_HOOFD_065_2 → inv_062 → 01_HOOFD_110 → inv_105 → 01_HOOFD_120 → inv_044 → 01_HOOFD_180 → 01_HOOFD_200 → inv_001 → inv_011 → 01_HOOFD_330 → 09_AH_I_010 → inv_112 → 01_HOOFD_370 → inv_075 → 11_AH_II_010 → inv_050 → 01_HOOFD_480 → 01_HOOFD_490_1 → inv_074 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_080 → 01_HOOFD_510_2 → 01_BB_540 → inv_029</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr"/>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>inv_012 → inv_123</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr"/>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>inv_81 → 01_HOOFD_380</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr"/>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>inv_103 → 01_HOOFD_015</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr"/>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>04_BPT_005 → 01_HOOFD_015 → 01_HOOFD_020 → inv_086 → 03_GBH_005 → inv_065 → 05_EIND_010 → inv_004 → inv_026 → 01_HOOFD_110 → 01_HOOFD_120 → 01_HOOFD_180 → inv_137 → 08_AWB45_005 → inv_087 → inv_044</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr"/>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>01_HOOFD_380 → 01_HOOFD_510_1 → inv_065 → 01_BB_540 → 01_BB_770 → inv_047</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr"/>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>01_HOOFD_065_1 → inv_063</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr"/>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>inv_010 → 01_HOOFD_011</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr"/>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>inv_162 → inv_123</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr"/>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>inv_126 → 01_HOOFD_510_1 → inv_065 → 01_BB_540 → 01_BB_770 → inv_047</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr"/>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>01_BB_540 → 01_HOOFD_015 → 01_HOOFD_020 → inv_086 → 03_GBH_005 → inv_065 → 05_EIND_010 → inv_004 → inv_026 → 01_HOOFD_110 → 01_HOOFD_120 → 01_HOOFD_180 → inv_137 → 08_AWB45_005 → inv_087 → inv_044</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr"/>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>01_HOOFD_490_1 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr"/>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>inv_14 → 02_DRZ_010</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr"/>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>Generate Standard Bill (GB) → Ship Inside of Germany (SG)</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr"/>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>inv_092 → 01_HOOFD_015 → 01_HOOFD_020 → inv_086 → 03_GBH_005 → inv_065 → 05_EIND_010 → inv_004 → inv_026 → 01_HOOFD_110 → 01_HOOFD_120 → 01_HOOFD_180 → inv_137 → 08_AWB45_005 → inv_087 → inv_044</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr"/>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>01_HOOFD_030_2 → 01_HOOFD_510_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr"/>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>01_HOOFD_380 → 01_HOOFD_015</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr"/>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>inv_038 → inv_158</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr"/>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>inv_123 → 01_HOOFD_015</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr"/>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>inv_043 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr"/>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>01_HOOFD_480 → 01_HOOFD_490_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr"/>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>inv_026 → 01_HOOFD_015</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr"/>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>01_HOOFD_430 → 01_HOOFD_480 → 01_HOOFD_490_1 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_42 → 01_HOOFD_510_1 → inv_87 → inv_33</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr"/>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>01_HOOFD_200 → 01_HOOFD_015 → 01_HOOFD_020 → inv_086 → 03_GBH_005 → inv_065 → 05_EIND_010 → inv_004 → inv_026 → 01_HOOFD_110 → 01_HOOFD_120 → 01_HOOFD_180 → inv_137 → 08_AWB45_005 → inv_087 → inv_044</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr"/>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>01_HOOFD_015 → 01_HOOFD_510_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr"/>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>inv_049 → 01_HOOFD_510_1 → inv_065 → 01_BB_540 → 01_BB_770 → inv_047</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr"/>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>inv_112 → inv_123</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr"/>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>04_BPT_005 → 01_HOOFD_510_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr"/>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>inv_051 → 01_HOOFD_510_1 → inv_065 → 01_BB_540 → 01_BB_770 → inv_047</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr"/>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>inv_064 → inv_078</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr"/>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>04_BPT_005 → inv_29</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr"/>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>01_HOOFD_195 → inv_011 → 01_HOOFD_330 → 09_AH_I_010 → inv_112 → 01_HOOFD_370 → inv_075 → 11_AH_II_010 → inv_050 → 01_HOOFD_480 → 01_HOOFD_490_1 → inv_074 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_080 → 01_HOOFD_510_2 → 01_BB_540 → inv_029</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr"/>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>inv_104 → 01_HOOFD_015</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr"/>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>inv_226 → inv_123</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr"/>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>Ship Outside of EU (SO) → Generate Standard Bill (GB) → Send Bill (SB)</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr"/>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>inv_200 → inv_123</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr"/>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>01_HOOFD_380 → inv_123</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr"/>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>01_HOOFD_430 → 01_HOOFD_510_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr"/>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>01_HOOFD_370 → 01_HOOFD_510_1 → inv_065 → 01_BB_540 → 01_BB_770 → inv_047</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr"/>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>02_DRZ_010 → 01_HOOFD_510_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr"/>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>inv_175 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr"/>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>01_HOOFD_120 → inv_078 → inv_044 → 01_HOOFD_180 → 01_HOOFD_200 → inv_001 → inv_011 → 01_HOOFD_330 → 09_AH_I_010 → inv_112 → 01_HOOFD_370 → inv_075 → 11_AH_II_010 → inv_050 → 01_HOOFD_480 → 01_HOOFD_490_1 → inv_074 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_080 → 01_HOOFD_510_2 → 01_BB_540 → inv_029</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr"/>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>inv_207 → inv_123</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr"/>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>01_HOOFD_065_2 → inv_078</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr"/>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>01_HOOFD_010 → inv_10</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr"/>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>inv_062 → inv_078 → inv_044 → 01_HOOFD_180 → 01_HOOFD_200 → inv_001 → inv_011 → 01_HOOFD_330 → 09_AH_I_010 → inv_112 → 01_HOOFD_370 → inv_075 → 11_AH_II_010 → inv_050 → 01_HOOFD_480 → 01_HOOFD_490_1 → inv_074 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_080 → 01_HOOFD_510_2 → 01_BB_540 → inv_029</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr"/>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>inv_119 → inv_123</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr"/>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>05_EIND_010 → inv_123</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr"/>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>01_HOOFD_510_1 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr"/>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>01_HOOFD_200 → 01_HOOFD_015</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr"/>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>01_HOOFD_195 → 01_HOOFD_510_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr"/>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>inv_198 → inv_123</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr"/>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>inv_140 → inv_123</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr"/>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>inv_029 → 01_HOOFD_510_1 → inv_065 → 01_BB_540 → 01_BB_770 → inv_047</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr"/>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>09_AH_I_010 → 01_HOOFD_510_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr"/>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>Ship Outside of EU (SO) → Generate Standard Bill (GB)</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr"/>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>01_HOOFD_030_1 → inv_123</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr"/>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>Ship Inside of Germany (SG) → Prepare Special Bill (PB)</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr"/>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>04_BPT_005 → inv_10</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr"/>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>01_HOOFD_120 → 01_HOOFD_015 → 01_HOOFD_020 → inv_086 → 03_GBH_005 → inv_065 → 05_EIND_010 → inv_004 → inv_026 → 01_HOOFD_110 → 01_HOOFD_120 → 01_HOOFD_180 → inv_137 → 08_AWB45_005 → inv_087 → inv_044</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr"/>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>inv_122 → 01_HOOFD_015 → 01_HOOFD_020 → inv_086 → 03_GBH_005 → inv_065 → 05_EIND_010 → inv_004 → inv_026 → 01_HOOFD_110 → 01_HOOFD_120 → 01_HOOFD_180 → inv_137 → 08_AWB45_005 → inv_087 → inv_044</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr"/>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>03_GBH_005 → 01_HOOFD_015 → 01_HOOFD_020 → inv_086 → 03_GBH_005 → inv_065 → 05_EIND_010 → inv_004 → inv_026 → 01_HOOFD_110 → 01_HOOFD_120 → 01_HOOFD_180 → inv_137 → 08_AWB45_005 → inv_087 → inv_044</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr"/>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>01_HOOFD_490_2 → 01_HOOFD_510_1 → inv_080 → 01_HOOFD_510_2 → 01_BB_540 → inv_029</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr"/>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>inv_85 → 01_HOOFD_030_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr"/>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>01_HOOFD_510_2 → 01_HOOFD_510_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr"/>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>inv_141 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr"/>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>inv_196 → inv_123</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr"/>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>02_DRZ_010 → inv_123</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr"/>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>inv_09 → 01_HOOFD_195</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr"/>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>inv_102 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr"/>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>01_HOOFD_480 → inv_123</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr"/>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>inv_094 → 01_HOOFD_015</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr"/>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>inv_191 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr"/>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>inv_220 → inv_123</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr"/>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>inv_135 → inv_123</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr"/>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>inv_007 → 01_HOOFD_015 → 01_HOOFD_020 → inv_086 → 03_GBH_005 → inv_065 → 05_EIND_010 → inv_004 → inv_026 → 01_HOOFD_110 → 01_HOOFD_120 → 01_HOOFD_180 → inv_137 → 08_AWB45_005 → inv_087 → inv_044</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr"/>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>01_HOOFD_011 → inv_115 → 01_HOOFD_020 → 03_GBH_005 → 02_DRZ_010 → 01_HOOFD_050 → inv_092 → inv_053 → inv_105 → 01_HOOFD_120 → inv_044 → 01_HOOFD_180 → 01_HOOFD_200 → inv_001 → inv_011 → 01_HOOFD_330 → 09_AH_I_010 → inv_112 → 01_HOOFD_370 → inv_075 → 11_AH_II_010 → inv_050 → 01_HOOFD_480 → 01_HOOFD_490_1 → inv_074 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_080 → 01_HOOFD_510_2 → 01_BB_540 → inv_029</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr"/>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>01_HOOFD_011 → 01_HOOFD_030_2 → 02_DRZ_010 → 04_BPT_005 → inv_29 → 01_HOOFD_180 → inv_09 → 01_HOOFD_195 → inv_30 → 01_HOOFD_200 → 01_HOOFD_330 → 09_AH_I_010 → inv_36 → 01_HOOFD_375 → inv_81 → 01_HOOFD_380 → 01_HOOFD_430 → 01_HOOFD_480 → 01_HOOFD_490_1 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_42 → 01_HOOFD_510_1 → inv_87 → inv_33</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr"/>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>01_HOOFD_430 → 01_HOOFD_015</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr"/>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>03_GBH_005 → 02_DRZ_010 → 01_HOOFD_050 → inv_092 → inv_053 → inv_105 → 01_HOOFD_120 → inv_044 → 01_HOOFD_180 → 01_HOOFD_200 → inv_001 → inv_011 → 01_HOOFD_330 → 09_AH_I_010 → inv_112 → 01_HOOFD_370 → inv_075 → 11_AH_II_010 → inv_050 → 01_HOOFD_480 → 01_HOOFD_490_1 → inv_074 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_080 → 01_HOOFD_510_2 → 01_BB_540 → inv_029</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr"/>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>inv_149 → inv_123</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr"/>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>inv_059 → inv_123</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr"/>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>01_HOOFD_015 → inv_092</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr"/>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>inv_034 → inv_050 → 01_HOOFD_480 → 01_HOOFD_490_1 → inv_074 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_080 → 01_HOOFD_510_2 → 01_BB_540 → inv_029</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr"/>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>02_DRZ_010 → 01_HOOFD_050</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr"/>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>inv_084 → 01_HOOFD_510_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr"/>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>01_HOOFD_510_2 → inv_123</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr"/>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>Evaluate Size of Order (EO) → Generate Standard Bill (GB)</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr"/>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>inv_079 → 01_HOOFD_065_1 → inv_061 → inv_064 → inv_062 → 01_HOOFD_110 → inv_105 → 01_HOOFD_120 → inv_044 → 01_HOOFD_180 → 01_HOOFD_200 → inv_001 → inv_011 → 01_HOOFD_330 → 09_AH_I_010 → inv_112 → 01_HOOFD_370 → inv_075 → 11_AH_II_010 → inv_050 → 01_HOOFD_480 → 01_HOOFD_490_1 → inv_074 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_080 → 01_HOOFD_510_2 → 01_BB_540 → inv_029</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr"/>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>inv_205 → inv_123</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr"/>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>inv_10 → 01_HOOFD_030_2 → 02_DRZ_010 → 04_BPT_005 → inv_29 → 01_HOOFD_180 → inv_09 → 01_HOOFD_195 → inv_30 → 01_HOOFD_200 → 01_HOOFD_330 → 09_AH_I_010 → inv_36 → 01_HOOFD_375 → inv_81 → 01_HOOFD_380 → 01_HOOFD_430 → 01_HOOFD_480 → 01_HOOFD_490_1 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_42 → 01_HOOFD_510_1 → inv_87 → inv_33</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr"/>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>inv_054 → 01_HOOFD_015</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr"/>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>01_HOOFD_110 → 01_HOOFD_015 → 01_HOOFD_020 → inv_086 → 03_GBH_005 → inv_065 → 05_EIND_010 → inv_004 → inv_026 → 01_HOOFD_110 → 01_HOOFD_120 → 01_HOOFD_180 → inv_137 → 08_AWB45_005 → inv_087 → inv_044</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr"/>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>Receive Order(RO) → Load Container (LC)</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr"/>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>inv_154 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr"/>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>inv_084 → inv_123</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr"/>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>01_HOOFD_030_2 → 01_HOOFD_510_1 → inv_065 → 01_BB_540 → 01_BB_770 → inv_047</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr"/>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>01_HOOFD_020 → 01_HOOFD_030_2 → 02_DRZ_010 → 04_BPT_005 → inv_29 → 01_HOOFD_180 → inv_09 → 01_HOOFD_195 → inv_30 → 01_HOOFD_200 → 01_HOOFD_330 → 09_AH_I_010 → inv_36 → 01_HOOFD_375 → inv_81 → 01_HOOFD_380 → 01_HOOFD_430 → 01_HOOFD_480 → 01_HOOFD_490_1 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_42 → 01_HOOFD_510_1 → inv_87 → inv_33</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr"/>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>inv_174 → inv_123</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr"/>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>inv_100 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr"/>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>inv_099 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr"/>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>01_HOOFD_065_1 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr"/>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>inv_227 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr"/>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>01_HOOFD_330 → inv_123</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr"/>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>01_HOOFD_065_2 → 02_DRZ_010</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr"/>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>inv_162 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr"/>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>01_HOOFD_020 → inv_123</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr"/>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>inv_078 → 01_HOOFD_030_2 → inv_009 → 04_BPT_005 → inv_016 → 01_HOOFD_180 → inv_101 → 01_HOOFD_200 → inv_010 → inv_096 → 01_HOOFD_330 → 09_AH_I_010 → inv_121 → inv_100 → 01_HOOFD_380 → 01_HOOFD_430 → 01_HOOFD_480 → 01_HOOFD_490_1 → inv_126 → inv_060 → 01_HOOFD_510_2 → inv_058 → 01_HOOFD_495 → inv_065 → 01_BB_540 → 01_BB_770 → inv_047</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr"/>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>01_HOOFD_330 → 01_HOOFD_015</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr"/>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>01_HOOFD_015 → 01_HOOFD_030_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr"/>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>inv_232 → inv_123</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr"/>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>01_HOOFD_011 → 02_DRZ_010 → 04_BPT_005 → inv_29 → 01_HOOFD_180 → inv_09 → 01_HOOFD_195 → inv_30 → 01_HOOFD_200 → 01_HOOFD_330 → 09_AH_I_010 → inv_36 → 01_HOOFD_375 → inv_81 → 01_HOOFD_380 → 01_HOOFD_430 → 01_HOOFD_480 → 01_HOOFD_490_1 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_42 → 01_HOOFD_510_1 → inv_87 → inv_33</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr"/>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>inv_064 → inv_078 → inv_044 → 01_HOOFD_180 → 01_HOOFD_200 → inv_001 → inv_011 → 01_HOOFD_330 → 09_AH_I_010 → inv_112 → 01_HOOFD_370 → inv_075 → 11_AH_II_010 → inv_050 → 01_HOOFD_480 → 01_HOOFD_490_1 → inv_074 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_080 → 01_HOOFD_510_2 → 01_BB_540 → inv_029</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr"/>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>01_HOOFD_375 → 01_HOOFD_370</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr"/>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>01_BB_770 → 01_HOOFD_510_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr"/>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>inv_086 → 01_HOOFD_510_1 → inv_065 → 01_BB_540 → 01_BB_770 → inv_047</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr"/>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>01_HOOFD_110 → inv_29</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr"/>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>inv_017 → 01_HOOFD_510_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr"/>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>01_HOOFD_065_2 → 01_HOOFD_015 → 01_HOOFD_020 → inv_086 → 03_GBH_005 → inv_065 → 05_EIND_010 → inv_004 → inv_026 → 01_HOOFD_110 → 01_HOOFD_120 → 01_HOOFD_180 → inv_137 → 08_AWB45_005 → inv_087 → inv_044</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr"/>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>01_HOOFD_510_2 → 01_HOOFD_510_1 → inv_065 → 01_BB_540 → 01_BB_770 → inv_047</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr"/>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>01_HOOFD_015 → inv_021</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr"/>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>inv_009 → 01_HOOFD_510_1 → inv_065 → 01_BB_540 → 01_BB_770 → inv_047</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr"/>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>inv_157 → inv_123</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr"/>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>inv_85 → 02_DRZ_010 → 04_BPT_005 → inv_29 → 01_HOOFD_180 → inv_09 → 01_HOOFD_195 → inv_30 → 01_HOOFD_200 → 01_HOOFD_330 → 09_AH_I_010 → inv_36 → 01_HOOFD_375 → inv_81 → 01_HOOFD_380 → 01_HOOFD_430 → 01_HOOFD_480 → 01_HOOFD_490_1 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_42 → 01_HOOFD_510_1 → inv_87 → inv_33</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr"/>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>inv_062 → inv_123</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr"/>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>inv_068 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr"/>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>01_HOOFD_495 → 01_HOOFD_015 → 01_HOOFD_020 → inv_086 → 03_GBH_005 → inv_065 → 05_EIND_010 → inv_004 → inv_026 → 01_HOOFD_110 → 01_HOOFD_120 → 01_HOOFD_180 → inv_137 → 08_AWB45_005 → inv_087 → inv_044</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr"/>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>inv_153 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr"/>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>02_DRZ_010 → 01_HOOFD_050 → inv_092 → inv_053 → inv_105 → 01_HOOFD_120 → inv_044 → 01_HOOFD_180 → 01_HOOFD_200 → inv_001 → inv_011 → 01_HOOFD_330 → 09_AH_I_010 → inv_112 → 01_HOOFD_370 → inv_075 → 11_AH_II_010 → inv_050 → 01_HOOFD_480 → 01_HOOFD_490_1 → inv_074 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_080 → 01_HOOFD_510_2 → 01_BB_540 → inv_029</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr"/>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>inv_102 → inv_123</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr"/>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>inv_145 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr"/>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>01_HOOFD_490_2 → 01_HOOFD_495 → inv_42 → 01_HOOFD_510_1 → inv_87 → inv_33</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr"/>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>inv_061 → inv_064</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr"/>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>01_HOOFD_011 → inv_027</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr"/>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>inv_026 → 01_HOOFD_015 → 01_HOOFD_020 → inv_086 → 03_GBH_005 → inv_065 → 05_EIND_010 → inv_004 → inv_026 → 01_HOOFD_110 → 01_HOOFD_120 → 01_HOOFD_180 → inv_137 → 08_AWB45_005 → inv_087 → inv_044</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr"/>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>inv_097 → 01_HOOFD_015 → 01_HOOFD_020 → inv_086 → 03_GBH_005 → inv_065 → 05_EIND_010 → inv_004 → inv_026 → 01_HOOFD_110 → 01_HOOFD_120 → 01_HOOFD_180 → inv_137 → 08_AWB45_005 → inv_087 → inv_044</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr"/>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>01_HOOFD_120 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr"/>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>01_HOOFD_110 → inv_078 → inv_044 → 01_HOOFD_180 → 01_HOOFD_200 → inv_001 → inv_011 → 01_HOOFD_330 → 09_AH_I_010 → inv_112 → 01_HOOFD_370 → inv_075 → 11_AH_II_010 → inv_050 → 01_HOOFD_480 → 01_HOOFD_490_1 → inv_074 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_080 → 01_HOOFD_510_2 → 01_BB_540 → inv_029</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr"/>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>inv_081 → inv_123</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr"/>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>Ship Outside of EU (SO) → Prepare Special Bill (PB) → Send Bill (SB)</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr"/>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>01_HOOFD_065_2 → 01_HOOFD_030_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr"/>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>inv_005 → 01_HOOFD_510_1 → inv_065 → 01_BB_540 → 01_BB_770 → inv_047</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr"/>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>01_HOOFD_490_2 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr"/>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>01_HOOFD_030_1 → 02_DRZ_010</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr"/>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>inv_080 → 01_HOOFD_510_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr"/>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>inv_222 → inv_123</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr"/>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>inv_032 → 01_HOOFD_510_1 → inv_065 → 01_BB_540 → 01_BB_770 → inv_047</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr"/>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>01_HOOFD_195 → 01_HOOFD_510_1 → inv_065 → 01_BB_540 → 01_BB_770 → inv_047</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr"/>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>01_HOOFD_020 → 03_GBH_005</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr"/>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>inv_030 → inv_123</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr"/>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>inv_028 → inv_123</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr"/>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>inv_158 → inv_123</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr"/>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>inv_045 → inv_031</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr"/>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>inv_207 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr"/>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>inv_161 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr"/>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>inv_053 → inv_078 → inv_044 → 01_HOOFD_180 → 01_HOOFD_200 → inv_001 → inv_011 → 01_HOOFD_330 → 09_AH_I_010 → inv_112 → 01_HOOFD_370 → inv_075 → 11_AH_II_010 → inv_050 → 01_HOOFD_480 → 01_HOOFD_490_1 → inv_074 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_080 → 01_HOOFD_510_2 → 01_BB_540 → inv_029</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr"/>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>01_HOOFD_375 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr"/>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>Load Container (LC) → Prepare Special Bill (PB)</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr"/>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>inv_090 → inv_123</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr"/>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>01_HOOFD_490_1 → 01_HOOFD_510_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr"/>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>inv_135 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr"/>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>01_HOOFD_370 → inv_81</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr"/>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>inv_115 → 01_HOOFD_020 → 03_GBH_005 → 02_DRZ_010 → 01_HOOFD_050 → inv_092 → inv_053 → inv_105 → 01_HOOFD_120 → inv_044 → 01_HOOFD_180 → 01_HOOFD_200 → inv_001 → inv_011 → 01_HOOFD_330 → 09_AH_I_010 → inv_112 → 01_HOOFD_370 → inv_075 → 11_AH_II_010 → inv_050 → 01_HOOFD_480 → 01_HOOFD_490_1 → inv_074 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_080 → 01_HOOFD_510_2 → 01_BB_540 → inv_029</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr"/>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>inv_025 → 01_HOOFD_510_1 → inv_065 → 01_BB_540 → 01_BB_770 → inv_047</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr"/>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>01_HOOFD_510_1 → inv_87 → inv_33</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr"/>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>04_BPT_005 → inv_035 → 01_HOOFD_065_2 → inv_062 → 01_HOOFD_110 → inv_105 → 01_HOOFD_120 → inv_044 → 01_HOOFD_180 → 01_HOOFD_200 → inv_001 → inv_011 → 01_HOOFD_330 → 09_AH_I_010 → inv_112 → 01_HOOFD_370 → inv_075 → 11_AH_II_010 → inv_050 → 01_HOOFD_480 → 01_HOOFD_490_1 → inv_074 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_080 → 01_HOOFD_510_2 → 01_BB_540 → inv_029</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr"/>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>inv_172 → inv_123</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr"/>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>inv_066 → 01_HOOFD_375</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr"/>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>inv_194 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr"/>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>inv_120 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr"/>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>01_HOOFD_490_1 → 01_HOOFD_510_1 → inv_065 → 01_BB_540 → 01_BB_770 → inv_047</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr"/>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>01_HOOFD_065_1 → 01_HOOFD_510_1 → inv_065 → 01_BB_540 → 01_BB_770 → inv_047</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr"/>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>08_AWB45_005 → 01_HOOFD_015</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr"/>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>01_HOOFD_370 → inv_039</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr"/>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>01_HOOFD_195 → 01_HOOFD_015 → 01_HOOFD_020 → inv_086 → 03_GBH_005 → inv_065 → 05_EIND_010 → inv_004 → inv_026 → 01_HOOFD_110 → 01_HOOFD_120 → 01_HOOFD_180 → inv_137 → 08_AWB45_005 → inv_087 → inv_044</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr"/>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>01_HOOFD_490_1 → inv_074 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_080 → 01_HOOFD_510_2 → 01_BB_540 → inv_029</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr"/>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>01_HOOFD_180 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr"/>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>inv_018 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr"/>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>01_HOOFD_120 → 01_HOOFD_015</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr"/>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>inv_114 → inv_123</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr"/>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>01_HOOFD_010 → inv_10 → inv_85 → 01_HOOFD_015 → 01_HOOFD_020 → inv_70 → 01_HOOFD_065_2 → 01_HOOFD_065_1 → 01_HOOFD_110 → inv_29 → 01_HOOFD_180 → inv_09 → 01_HOOFD_195 → inv_30 → 01_HOOFD_200 → 01_HOOFD_330 → 09_AH_I_010 → inv_36 → 01_HOOFD_375 → inv_81 → 01_HOOFD_380 → 01_HOOFD_430 → 01_HOOFD_480 → 01_HOOFD_490_1 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_42 → 01_HOOFD_510_1 → inv_87 → inv_33</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr"/>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>01_HOOFD_490_1 → 01_HOOFD_015</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr"/>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>inv_084 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr"/>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>01_HOOFD_030_1 → 01_HOOFD_015 → 01_HOOFD_020 → inv_086 → 03_GBH_005 → inv_065 → 05_EIND_010 → inv_004 → inv_026 → 01_HOOFD_110 → 01_HOOFD_120 → 01_HOOFD_180 → inv_137 → 08_AWB45_005 → inv_087 → inv_044</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr"/>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>inv_080 → 01_HOOFD_510_1 → inv_065 → 01_BB_540 → 01_BB_770 → inv_047</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr"/>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>inv_037 → 01_HOOFD_015 → 01_HOOFD_020 → inv_086 → 03_GBH_005 → inv_065 → 05_EIND_010 → inv_004 → inv_026 → 01_HOOFD_110 → 01_HOOFD_120 → 01_HOOFD_180 → inv_137 → 08_AWB45_005 → inv_087 → inv_044</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr"/>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>01_HOOFD_030_1 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr"/>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>01_HOOFD_380 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr"/>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>05_EIND_010 → 01_HOOFD_510_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr"/>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>inv_42 → 01_HOOFD_510_2 → inv_87 → inv_33</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr"/>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>inv_004 → 01_HOOFD_015</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr"/>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>01_HOOFD_050 → inv_054 → 01_HOOFD_015 → inv_110 → 04_BPT_005 → inv_035 → 01_HOOFD_065_2 → inv_062 → 01_HOOFD_110 → inv_105 → 01_HOOFD_120 → inv_044 → 01_HOOFD_180 → 01_HOOFD_200 → inv_001 → inv_011 → 01_HOOFD_330 → 09_AH_I_010 → inv_112 → 01_HOOFD_370 → inv_075 → 11_AH_II_010 → inv_050 → 01_HOOFD_480 → 01_HOOFD_490_1 → inv_074 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_080 → 01_HOOFD_510_2 → 01_BB_540 → inv_029</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr"/>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>09_AH_I_010 → inv_36 → 01_HOOFD_375 → inv_81 → 01_HOOFD_380 → 01_HOOFD_430 → 01_HOOFD_480 → 01_HOOFD_490_1 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_42 → 01_HOOFD_510_1 → inv_87 → inv_33</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr"/>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>01_HOOFD_490_2 → 01_HOOFD_510_1 → inv_065 → 01_BB_540 → 01_BB_770 → inv_047</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr"/>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>inv_142 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr"/>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>01_HOOFD_010 → 01_HOOFD_011 → inv_115 → 01_HOOFD_020 → 03_GBH_005 → 02_DRZ_010 → 01_HOOFD_050 → inv_092 → inv_053 → inv_105 → 01_HOOFD_120 → inv_044 → 01_HOOFD_180 → 01_HOOFD_200 → inv_001 → inv_011 → 01_HOOFD_330 → 09_AH_I_010 → inv_112 → 01_HOOFD_370 → inv_075 → 11_AH_II_010 → inv_050 → 01_HOOFD_480 → 01_HOOFD_490_1 → inv_074 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_080 → 01_HOOFD_510_2 → 01_BB_540 → inv_029</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr"/>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>inv_39 → 01_HOOFD_030_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr"/>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>01_HOOFD_180 → 01_HOOFD_510_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr"/>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>inv_109 → 01_HOOFD_015 → 01_HOOFD_020 → inv_086 → 03_GBH_005 → inv_065 → 05_EIND_010 → inv_004 → inv_026 → 01_HOOFD_110 → 01_HOOFD_120 → 01_HOOFD_180 → inv_137 → 08_AWB45_005 → inv_087 → inv_044</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr"/>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>inv_058 → 01_HOOFD_510_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr"/>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>inv_065 → 01_HOOFD_015</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr"/>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>01_HOOFD_330 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr"/>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>09_AH_I_010 → 01_HOOFD_015</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr"/>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>01_HOOFD_510_2 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr"/>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>inv_227 → inv_123</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr"/>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>inv_127 → inv_123</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr"/>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>01_HOOFD_430 → 01_HOOFD_510_1 → inv_065 → 01_BB_540 → 01_BB_770 → inv_047</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr"/>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>11_AH_II_010 → inv_050</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr"/>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>01_HOOFD_010 → 01_HOOFD_011</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr"/>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>01_HOOFD_065_1 → 01_HOOFD_030_2 → 02_DRZ_010 → 04_BPT_005 → inv_29 → 01_HOOFD_180 → inv_09 → 01_HOOFD_195 → inv_30 → 01_HOOFD_200 → 01_HOOFD_330 → 09_AH_I_010 → inv_36 → 01_HOOFD_375 → inv_81 → 01_HOOFD_380 → 01_HOOFD_430 → 01_HOOFD_480 → 01_HOOFD_490_1 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_42 → 01_HOOFD_510_1 → inv_87 → inv_33</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr"/>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>01_HOOFD_480 → 01_HOOFD_490_1 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_42 → 01_HOOFD_510_1 → inv_87 → inv_33</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr"/>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>01_HOOFD_370 → inv_039 → inv_031 → 01_HOOFD_380 → 01_HOOFD_430 → inv_034 → inv_050 → 01_HOOFD_480 → 01_HOOFD_490_1 → inv_074 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_080 → 01_HOOFD_510_2 → 01_BB_540 → inv_029</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr"/>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>inv_14 → 02_DRZ_010 → 04_BPT_005 → inv_29 → 01_HOOFD_180 → inv_09 → 01_HOOFD_195 → inv_30 → 01_HOOFD_200 → 01_HOOFD_330 → 09_AH_I_010 → inv_36 → 01_HOOFD_375 → inv_81 → 01_HOOFD_380 → 01_HOOFD_430 → 01_HOOFD_480 → 01_HOOFD_490_1 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_42 → 01_HOOFD_510_1 → inv_87 → inv_33</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr"/>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>01_HOOFD_510_2 → inv_87</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr"/>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>01_HOOFD_375 → 01_HOOFD_370 → inv_81 → 01_HOOFD_380 → 01_HOOFD_430 → 01_HOOFD_480 → 01_HOOFD_490_1 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_42 → 01_HOOFD_510_1 → inv_87 → inv_33</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr"/>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>09_AH_I_010 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr"/>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>inv_159 → inv_123</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr"/>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>inv_30 → 01_HOOFD_200</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr"/>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>Receive Order(RO) → Evaluate Size of Order (EO) → Prepare Special Bill (PB) → Send Bill (SB)</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr"/>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>inv_141 → inv_123</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr"/>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>01_HOOFD_180 → inv_123</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr"/>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>01_HOOFD_010 → 01_HOOFD_510_1 → inv_065 → 01_BB_540 → 01_BB_770 → inv_047</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr"/>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>inv_085 → 01_HOOFD_195</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr"/>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>01_HOOFD_110 → 01_HOOFD_510_1 → inv_065 → 01_BB_540 → 01_BB_770 → inv_047</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr"/>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>11_AH_II_010 → inv_050 → 01_HOOFD_480 → 01_HOOFD_490_1 → inv_074 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_080 → 01_HOOFD_510_2 → 01_BB_540 → inv_029</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr"/>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>Prepare Special Bill (PB) → Ship Inside of Germany (SG) → Send Bill (SB)</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr"/>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>Evaluate Size of Order (EO) → Ship Outside of EU (SO) → Send Bill (SB)</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr"/>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>inv_038 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_380 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_100 → 01_HOOFD_030_1 → inv_161 → inv_119 → 01_HOOFD_180 → inv_048 → inv_115 → 01_HOOFD_195 → inv_138 → inv_099 → inv_200 → inv_032 → 01_HOOFD_495 → inv_135 → 01_HOOFD_510_1 → inv_081 → inv_149 → inv_145 → inv_159</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr"/>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>inv_074 → 01_HOOFD_510_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr"/>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>inv_062 → 01_HOOFD_015 → 01_HOOFD_020 → inv_086 → 03_GBH_005 → inv_065 → 05_EIND_010 → inv_004 → inv_026 → 01_HOOFD_110 → 01_HOOFD_120 → 01_HOOFD_180 → inv_137 → 08_AWB45_005 → inv_087 → inv_044</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr"/>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>inv_218 → inv_123</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr"/>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>inv_051 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr"/>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>01_HOOFD_180 → 01_HOOFD_510_1 → inv_065 → 01_BB_540 → 01_BB_770 → inv_047</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr"/>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>inv_171 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr"/>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>inv_070 → 01_HOOFD_015 → 01_HOOFD_020 → inv_086 → 03_GBH_005 → inv_065 → 05_EIND_010 → inv_004 → inv_026 → 01_HOOFD_110 → 01_HOOFD_120 → 01_HOOFD_180 → inv_137 → 08_AWB45_005 → inv_087 → inv_044</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr"/>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>Receive Order(RO) → Load Container (LC) → Ship Outside of EU (SO) → Send Bill (SB)</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr"/>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>inv_045 → 01_HOOFD_010</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr"/>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>inv_005 → 01_HOOFD_510_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr"/>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>Ship Inside of Germany (SG) → Generate Standard Bill (GB)</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr"/>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>inv_160 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr"/>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>inv_166 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr"/>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>02_DRZ_010 → 01_HOOFD_015 → 01_HOOFD_020 → inv_086 → 03_GBH_005 → inv_065 → 05_EIND_010 → inv_004 → inv_026 → 01_HOOFD_110 → 01_HOOFD_120 → 01_HOOFD_180 → inv_137 → 08_AWB45_005 → inv_087 → inv_044</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr"/>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>inv_053 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr"/>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>inv_07 → inv_30 → 01_HOOFD_200 → 01_HOOFD_330 → 09_AH_I_010 → inv_36 → 01_HOOFD_375 → inv_81 → 01_HOOFD_380 → 01_HOOFD_430 → 01_HOOFD_480 → 01_HOOFD_490_1 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_42 → 01_HOOFD_510_1 → inv_87 → inv_33</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr"/>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>inv_099 → inv_078 → inv_083 → 01_HOOFD_010 → inv_046 → 01_HOOFD_011 → inv_045 → 01_HOOFD_020 → inv_025 → 01_HOOFD_065_2 → 01_HOOFD_065_1 → 01_HOOFD_110 → inv_105 → inv_056 → 01_HOOFD_050 → inv_044 → 05_EIND_010 → inv_049 → 01_HOOFD_120 → inv_101 → 01_HOOFD_200 → inv_010 → inv_096 → 01_HOOFD_330 → 09_AH_I_010 → inv_121 → inv_100 → 01_HOOFD_380 → 01_HOOFD_430 → 01_HOOFD_480 → 01_HOOFD_490_1 → inv_126 → inv_060 → 01_HOOFD_510_2 → inv_058 → 01_HOOFD_495 → inv_065 → 01_BB_540 → 01_BB_770 → inv_047</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr"/>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>inv_176 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr"/>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>inv_009 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr"/>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>inv_112 → 01_HOOFD_370 → inv_075 → 11_AH_II_010 → inv_050 → 01_HOOFD_480 → 01_HOOFD_490_1 → inv_074 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_080 → 01_HOOFD_510_2 → 01_BB_540 → inv_029</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr"/>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>03_GBH_005 → 01_HOOFD_015</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr"/>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>inv_070 → 01_HOOFD_510_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr"/>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>inv_117 → inv_038</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr"/>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>inv_030 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr"/>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>Prepare Special Bill (PB) → Ship Outside of EU (SO)</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr"/>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>01_HOOFD_020 → 02_DRZ_010</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr"/>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>inv_059 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr"/>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>01_HOOFD_065_1 → inv_063 → inv_100 → 01_HOOFD_010 → 01_HOOFD_011 → inv_115 → 01_HOOFD_020 → 03_GBH_005 → 02_DRZ_010 → 01_HOOFD_050 → inv_092 → inv_053 → inv_105 → 01_HOOFD_120 → inv_044 → 01_HOOFD_180 → 01_HOOFD_200 → inv_001 → inv_011 → 01_HOOFD_330 → 09_AH_I_010 → inv_112 → 01_HOOFD_370 → inv_075 → 11_AH_II_010 → inv_050 → 01_HOOFD_480 → 01_HOOFD_490_1 → inv_074 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_080 → 01_HOOFD_510_2 → 01_BB_540 → inv_029</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr"/>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>inv_126 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr"/>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>inv_043 → inv_123</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr"/>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>inv_29 → 01_HOOFD_180 → inv_09 → 01_HOOFD_195 → inv_30 → 01_HOOFD_200 → 01_HOOFD_330 → 09_AH_I_010 → inv_36 → 01_HOOFD_375 → inv_81 → 01_HOOFD_380 → 01_HOOFD_430 → 01_HOOFD_480 → 01_HOOFD_490_1 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_42 → 01_HOOFD_510_1 → inv_87 → inv_33</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr"/>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>Load Container (LC) → Ship Inside of EU (SE) → Ship Inside of Germany (SG) → Send Bill (SB)</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr"/>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>inv_229 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr"/>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>Ship Outside of EU (SO) → Prepare Special Bill (PB)</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr"/>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>01_HOOFD_430 → inv_034 → inv_050 → 01_HOOFD_480 → 01_HOOFD_490_1 → inv_074 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_080 → 01_HOOFD_510_2 → 01_BB_540 → inv_029</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr"/>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>inv_194 → inv_123</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr"/>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>01_HOOFD_490_2 → 01_HOOFD_510_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr"/>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>01_HOOFD_015 → 01_HOOFD_030_2 → 02_DRZ_010 → 04_BPT_005 → inv_29 → 01_HOOFD_180 → inv_09 → 01_HOOFD_195 → inv_30 → 01_HOOFD_200 → 01_HOOFD_330 → 09_AH_I_010 → inv_36 → 01_HOOFD_375 → inv_81 → 01_HOOFD_380 → 01_HOOFD_430 → 01_HOOFD_480 → 01_HOOFD_490_1 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_42 → 01_HOOFD_510_1 → inv_87 → inv_33</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr"/>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>inv_074 → inv_123</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr"/>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>inv_021 → 01_HOOFD_015</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr"/>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>01_HOOFD_015 → inv_092 → inv_065 → 05_EIND_010 → inv_095 → 02_DRZ_010 → 04_BPT_005 → inv_027 → 01_HOOFD_015 → 01_HOOFD_020 → inv_109 → 01_HOOFD_030_1 → inv_037 → 01_HOOFD_065_1 → inv_097 → inv_026 → 01_HOOFD_110 → 01_HOOFD_120 → 01_HOOFD_180 → inv_137 → 08_AWB45_005 → inv_087 → inv_044</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr"/>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>04_BPT_005 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
+        </is>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr"/>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>01_HOOFD_195 → inv_30 → 01_HOOFD_200 → 01_HOOFD_330 → 09_AH_I_010 → inv_36 → 01_HOOFD_375 → inv_81 → 01_HOOFD_380 → 01_HOOFD_430 → 01_HOOFD_480 → 01_HOOFD_490_1 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_42 → 01_HOOFD_510_1 → inv_87 → inv_33</t>
+        </is>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr"/>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>inv_046 → 01_HOOFD_510_1 → inv_065 → 01_BB_540 → 01_BB_770 → inv_047</t>
+        </is>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr"/>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>inv_095 → 01_HOOFD_015 → 01_HOOFD_020 → inv_086 → 03_GBH_005 → inv_065 → 05_EIND_010 → inv_004 → inv_026 → 01_HOOFD_110 → 01_HOOFD_120 → 01_HOOFD_180 → inv_137 → 08_AWB45_005 → inv_087 → inv_044</t>
+        </is>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr"/>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>inv_015 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
+        </is>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr"/>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>inv_102 → 01_HOOFD_015</t>
+        </is>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr"/>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>inv_032 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
+        </is>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr"/>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>04_BPT_005 → inv_29 → 01_HOOFD_180 → inv_09 → 01_HOOFD_195 → inv_30 → 01_HOOFD_200 → 01_HOOFD_330 → 09_AH_I_010 → inv_36 → 01_HOOFD_375 → inv_81 → 01_HOOFD_380 → 01_HOOFD_430 → 01_HOOFD_480 → 01_HOOFD_490_1 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_42 → 01_HOOFD_510_1 → inv_87 → inv_33</t>
+        </is>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr"/>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>inv_056 → 01_HOOFD_510_1 → inv_065 → 01_BB_540 → 01_BB_770 → inv_047</t>
+        </is>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr"/>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>01_HOOFD_030_2 → inv_14</t>
+        </is>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr"/>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>inv_080 → inv_123</t>
+        </is>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr"/>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>inv_050 → 01_HOOFD_480</t>
+        </is>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr"/>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>01_HOOFD_200 → 01_HOOFD_510_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr"/>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>09_AH_I_010 → 01_HOOFD_510_1 → inv_065 → 01_BB_540 → 01_BB_770 → inv_047</t>
+        </is>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr"/>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>01_HOOFD_430 → inv_034</t>
+        </is>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr"/>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>inv_219 → inv_123</t>
+        </is>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr"/>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>inv_015 → inv_123</t>
+        </is>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr"/>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>Evaluate Size of Order (EO) → Ship Inside of Germany (SG)</t>
+        </is>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr"/>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>inv_086 → 01_HOOFD_015</t>
+        </is>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr"/>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>inv_056 → inv_079</t>
+        </is>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr"/>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>inv_011 → 01_HOOFD_330 → 09_AH_I_010 → inv_112 → 01_HOOFD_370 → inv_075 → 11_AH_II_010 → inv_050 → 01_HOOFD_480 → 01_HOOFD_490_1 → inv_074 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_080 → 01_HOOFD_510_2 → 01_BB_540 → inv_029</t>
+        </is>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr"/>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t>01_HOOFD_330 → 01_HOOFD_510_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr"/>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t>inv_035 → inv_078 → inv_044 → 01_HOOFD_180 → 01_HOOFD_200 → inv_001 → inv_011 → 01_HOOFD_330 → 09_AH_I_010 → inv_112 → 01_HOOFD_370 → inv_075 → 11_AH_II_010 → inv_050 → 01_HOOFD_480 → 01_HOOFD_490_1 → inv_074 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_080 → 01_HOOFD_510_2 → 01_BB_540 → inv_029</t>
+        </is>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr"/>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>inv_048 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
+        </is>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr"/>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t>inv_190 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
+        </is>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr"/>
+      <c r="B690" t="inlineStr">
+        <is>
+          <t>01_HOOFD_065_1 → 01_HOOFD_015 → 01_HOOFD_020 → inv_086 → 03_GBH_005 → inv_065 → 05_EIND_010 → inv_004 → inv_026 → 01_HOOFD_110 → 01_HOOFD_120 → 01_HOOFD_180 → inv_137 → 08_AWB45_005 → inv_087 → inv_044</t>
+        </is>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr"/>
+      <c r="B691" t="inlineStr">
+        <is>
+          <t>inv_056 → 01_HOOFD_015</t>
+        </is>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr"/>
+      <c r="B692" t="inlineStr">
+        <is>
+          <t>01_HOOFD_030_1 → 02_DRZ_010 → 04_BPT_005 → inv_29 → 01_HOOFD_180 → inv_09 → 01_HOOFD_195 → inv_30 → 01_HOOFD_200 → 01_HOOFD_330 → 09_AH_I_010 → inv_36 → 01_HOOFD_375 → inv_81 → 01_HOOFD_380 → 01_HOOFD_430 → 01_HOOFD_480 → 01_HOOFD_490_1 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_42 → 01_HOOFD_510_1 → inv_87 → inv_33</t>
+        </is>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr"/>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t>inv_084 → 01_HOOFD_510_1 → inv_065 → 01_BB_540 → 01_BB_770 → inv_047</t>
+        </is>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr"/>
+      <c r="B694" t="inlineStr">
+        <is>
+          <t>inv_027 → 01_HOOFD_015 → 01_HOOFD_020 → inv_086 → 03_GBH_005 → inv_065 → 05_EIND_010 → inv_004 → inv_026 → 01_HOOFD_110 → 01_HOOFD_120 → 01_HOOFD_180 → inv_137 → 08_AWB45_005 → inv_087 → inv_044</t>
+        </is>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr"/>
+      <c r="B695" t="inlineStr">
+        <is>
+          <t>inv_060 → 01_HOOFD_510_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr"/>
+      <c r="B696" t="inlineStr">
+        <is>
+          <t>01_HOOFD_011 → 02_DRZ_010</t>
+        </is>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr"/>
+      <c r="B697" t="inlineStr">
+        <is>
+          <t>inv_045 → 01_HOOFD_510_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr"/>
+      <c r="B698" t="inlineStr">
+        <is>
+          <t>inv_161 → inv_123</t>
+        </is>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr"/>
+      <c r="B699" t="inlineStr">
+        <is>
+          <t>05_EIND_010 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
+        </is>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr"/>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t>inv_047 → 01_HOOFD_510_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr"/>
+      <c r="B701" t="inlineStr">
+        <is>
+          <t>01_HOOFD_820 → 01_HOOFD_015</t>
+        </is>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr"/>
+      <c r="B702" t="inlineStr">
+        <is>
+          <t>Generate Standard Bill (GB) → Ship Inside of Germany (SG) → Send Bill (SB)</t>
+        </is>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr"/>
+      <c r="B703" t="inlineStr">
+        <is>
+          <t>01_HOOFD_050 → inv_054</t>
+        </is>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr"/>
+      <c r="B704" t="inlineStr">
+        <is>
+          <t>inv_019 → 01_HOOFD_510_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr"/>
+      <c r="B705" t="inlineStr">
+        <is>
+          <t>01_HOOFD_330 → 09_AH_I_010</t>
+        </is>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr"/>
+      <c r="B706" t="inlineStr">
+        <is>
+          <t>04_BPT_005 → inv_10 → inv_85 → 01_HOOFD_015 → 01_HOOFD_020 → inv_70 → 01_HOOFD_065_2 → 01_HOOFD_065_1 → 01_HOOFD_110 → inv_29 → 01_HOOFD_180 → inv_09 → 01_HOOFD_195 → inv_30 → 01_HOOFD_200 → 01_HOOFD_330 → 09_AH_I_010 → inv_36 → 01_HOOFD_375 → inv_81 → 01_HOOFD_380 → 01_HOOFD_430 → 01_HOOFD_480 → 01_HOOFD_490_1 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_42 → 01_HOOFD_510_1 → inv_87 → inv_33</t>
+        </is>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr"/>
+      <c r="B707" t="inlineStr">
+        <is>
+          <t>01_HOOFD_195 → 01_HOOFD_015</t>
+        </is>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr"/>
+      <c r="B708" t="inlineStr">
+        <is>
+          <t>01_HOOFD_375 → inv_123</t>
+        </is>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr"/>
+      <c r="B709" t="inlineStr">
+        <is>
+          <t>01_HOOFD_370 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
+        </is>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr"/>
+      <c r="B710" t="inlineStr">
+        <is>
+          <t>01_HOOFD_015 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
+        </is>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr"/>
+      <c r="B711" t="inlineStr">
+        <is>
+          <t>inv_232 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
+        </is>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr"/>
+      <c r="B712" t="inlineStr">
+        <is>
+          <t>inv_122 → 01_HOOFD_015</t>
+        </is>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr"/>
+      <c r="B713" t="inlineStr">
+        <is>
+          <t>inv_050 → 01_HOOFD_480 → 01_HOOFD_490_1 → inv_074 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_080 → 01_HOOFD_510_2 → 01_BB_540 → inv_029</t>
+        </is>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr"/>
+      <c r="B714" t="inlineStr">
+        <is>
+          <t>inv_126 → inv_123</t>
+        </is>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr"/>
+      <c r="B715" t="inlineStr">
+        <is>
+          <t>01_HOOFD_180 → 01_HOOFD_015</t>
+        </is>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr"/>
+      <c r="B716" t="inlineStr">
+        <is>
+          <t>inv_36 → 01_HOOFD_370 → inv_81 → 01_HOOFD_380 → 01_HOOFD_430 → 01_HOOFD_480 → 01_HOOFD_490_1 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_42 → 01_HOOFD_510_1 → inv_87 → inv_33</t>
+        </is>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr"/>
+      <c r="B717" t="inlineStr">
+        <is>
+          <t>01_HOOFD_380 → 01_HOOFD_430 → 01_HOOFD_480 → 01_HOOFD_490_1 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_42 → 01_HOOFD_510_1 → inv_87 → inv_33</t>
+        </is>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr"/>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>inv_094 → inv_123</t>
+        </is>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr"/>
+      <c r="B719" t="inlineStr">
+        <is>
+          <t>inv_070 → 01_HOOFD_510_1 → inv_065 → 01_BB_540 → 01_BB_770 → inv_047</t>
+        </is>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr"/>
+      <c r="B720" t="inlineStr">
+        <is>
+          <t>inv_164 → inv_123</t>
+        </is>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr"/>
+      <c r="B721" t="inlineStr">
+        <is>
+          <t>inv_185 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
+        </is>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr"/>
+      <c r="B722" t="inlineStr">
+        <is>
+          <t>01_HOOFD_030_2 → inv_10 → inv_85 → 01_HOOFD_015 → 01_HOOFD_020 → inv_70 → 01_HOOFD_065_2 → 01_HOOFD_065_1 → 01_HOOFD_110 → inv_29 → 01_HOOFD_180 → inv_09 → 01_HOOFD_195 → inv_30 → 01_HOOFD_200 → 01_HOOFD_330 → 09_AH_I_010 → inv_36 → 01_HOOFD_375 → inv_81 → 01_HOOFD_380 → 01_HOOFD_430 → 01_HOOFD_480 → 01_HOOFD_490_1 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_42 → 01_HOOFD_510_1 → inv_87 → inv_33</t>
+        </is>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr"/>
+      <c r="B723" t="inlineStr">
+        <is>
+          <t>Receive Order(RO) → Evaluate Size of Order (EO)</t>
+        </is>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr"/>
+      <c r="B724" t="inlineStr">
+        <is>
+          <t>01_HOOFD_015 → 01_HOOFD_510_1 → inv_065 → 01_BB_540 → 01_BB_770 → inv_047</t>
+        </is>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr"/>
+      <c r="B725" t="inlineStr">
+        <is>
+          <t>03_GBH_005 → inv_85 → 01_HOOFD_015 → 01_HOOFD_020 → inv_70 → 01_HOOFD_065_2 → 01_HOOFD_065_1 → 01_HOOFD_110 → inv_29 → 01_HOOFD_180 → inv_09 → 01_HOOFD_195 → inv_30 → 01_HOOFD_200 → 01_HOOFD_330 → 09_AH_I_010 → inv_36 → 01_HOOFD_375 → inv_81 → 01_HOOFD_380 → 01_HOOFD_430 → 01_HOOFD_480 → 01_HOOFD_490_1 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_42 → 01_HOOFD_510_1 → inv_87 → inv_33</t>
+        </is>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr"/>
+      <c r="B726" t="inlineStr">
+        <is>
+          <t>inv_07 → inv_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="inlineStr"/>
+      <c r="B727" t="inlineStr">
+        <is>
+          <t>inv_117 → inv_038 → inv_027 → 01_HOOFD_015 → 01_HOOFD_020 → inv_086 → 03_GBH_005 → inv_065 → 05_EIND_010 → inv_004 → inv_026 → 01_HOOFD_110 → 01_HOOFD_120 → 01_HOOFD_180 → inv_137 → 08_AWB45_005 → inv_087 → inv_044</t>
+        </is>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr"/>
+      <c r="B728" t="inlineStr">
+        <is>
+          <t>inv_064 → 01_HOOFD_015</t>
+        </is>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr"/>
+      <c r="B729" t="inlineStr">
+        <is>
+          <t>01_HOOFD_370 → inv_123</t>
+        </is>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr"/>
+      <c r="B730" t="inlineStr">
+        <is>
+          <t>inv_047 → 01_HOOFD_510_1 → inv_065 → 01_BB_540 → 01_BB_770 → inv_047</t>
+        </is>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr"/>
+      <c r="B731" t="inlineStr">
+        <is>
+          <t>inv_028 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
+        </is>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr"/>
+      <c r="B732" t="inlineStr">
+        <is>
+          <t>inv_075 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
+        </is>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr"/>
+      <c r="B733" t="inlineStr">
+        <is>
+          <t>inv_196 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
+        </is>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr"/>
+      <c r="B734" t="inlineStr">
+        <is>
+          <t>Generate Standard Bill (GB) → Ship Outside of EU (SO)</t>
+        </is>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="inlineStr"/>
+      <c r="B735" t="inlineStr">
+        <is>
+          <t>01_HOOFD_020 → 03_GBH_005 → 02_DRZ_010 → 01_HOOFD_050 → inv_092 → inv_053 → inv_105 → 01_HOOFD_120 → inv_044 → 01_HOOFD_180 → 01_HOOFD_200 → inv_001 → inv_011 → 01_HOOFD_330 → 09_AH_I_010 → inv_112 → 01_HOOFD_370 → inv_075 → 11_AH_II_010 → inv_050 → 01_HOOFD_480 → 01_HOOFD_490_1 → inv_074 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_080 → 01_HOOFD_510_2 → 01_BB_540 → inv_029</t>
+        </is>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr"/>
+      <c r="B736" t="inlineStr">
+        <is>
+          <t>inv_184 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
+        </is>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="inlineStr"/>
+      <c r="B737" t="inlineStr">
+        <is>
+          <t>inv_138 → inv_123</t>
+        </is>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="inlineStr"/>
+      <c r="B738" t="inlineStr">
+        <is>
+          <t>inv_016 → 01_HOOFD_510_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="inlineStr"/>
+      <c r="B739" t="inlineStr">
+        <is>
+          <t>01_HOOFD_101 → inv_123</t>
+        </is>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="inlineStr"/>
+      <c r="B740" t="inlineStr">
+        <is>
+          <t>inv_37 → 02_DRZ_010</t>
+        </is>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="inlineStr"/>
+      <c r="B741" t="inlineStr">
+        <is>
+          <t>inv_10 → 01_HOOFD_030_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="inlineStr"/>
+      <c r="B742" t="inlineStr">
+        <is>
+          <t>01_HOOFD_030_2 → inv_10</t>
+        </is>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="inlineStr"/>
+      <c r="B743" t="inlineStr">
+        <is>
+          <t>inv_079 → 01_HOOFD_065_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="inlineStr"/>
+      <c r="B744" t="inlineStr">
+        <is>
+          <t>inv_085 → 01_HOOFD_015 → 01_HOOFD_020 → inv_086 → 03_GBH_005 → inv_065 → 05_EIND_010 → inv_004 → inv_026 → 01_HOOFD_110 → 01_HOOFD_120 → 01_HOOFD_180 → inv_137 → 08_AWB45_005 → inv_087 → inv_044</t>
+        </is>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="inlineStr"/>
+      <c r="B745" t="inlineStr">
+        <is>
+          <t>inv_009 → inv_123</t>
+        </is>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="inlineStr"/>
+      <c r="B746" t="inlineStr">
+        <is>
+          <t>inv_190 → inv_123</t>
+        </is>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="inlineStr"/>
+      <c r="B747" t="inlineStr">
+        <is>
+          <t>inv_083 → inv_123</t>
+        </is>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="inlineStr"/>
+      <c r="B748" t="inlineStr">
+        <is>
+          <t>Load Container (LC) → Ship Outside of EU (SO)</t>
+        </is>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="inlineStr"/>
+      <c r="B749" t="inlineStr">
+        <is>
+          <t>01_BB_770 → 01_HOOFD_015</t>
+        </is>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="inlineStr"/>
+      <c r="B750" t="inlineStr">
+        <is>
+          <t>inv_111 → inv_100</t>
+        </is>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="inlineStr"/>
+      <c r="B751" t="inlineStr">
+        <is>
+          <t>inv_105 → 01_HOOFD_510_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="inlineStr"/>
+      <c r="B752" t="inlineStr">
+        <is>
+          <t>01_HOOFD_330 → 09_AH_I_010 → inv_36 → 01_HOOFD_375 → inv_81 → 01_HOOFD_380 → 01_HOOFD_430 → 01_HOOFD_480 → 01_HOOFD_490_1 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_42 → 01_HOOFD_510_1 → inv_87 → inv_33</t>
+        </is>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="inlineStr"/>
+      <c r="B753" t="inlineStr">
+        <is>
+          <t>inv_010 → 01_HOOFD_510_1 → inv_065 → 01_BB_540 → 01_BB_770 → inv_047</t>
+        </is>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="inlineStr"/>
+      <c r="B754" t="inlineStr">
+        <is>
+          <t>inv_101 → 01_HOOFD_510_1 → inv_065 → 01_BB_540 → 01_BB_770 → inv_047</t>
+        </is>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="inlineStr"/>
+      <c r="B755" t="inlineStr">
+        <is>
+          <t>01_HOOFD_195 → inv_011</t>
+        </is>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="inlineStr"/>
+      <c r="B756" t="inlineStr">
+        <is>
+          <t>inv_027 → inv_123</t>
+        </is>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="inlineStr"/>
+      <c r="B757" t="inlineStr">
+        <is>
+          <t>01_HOOFD_495 → inv_123</t>
+        </is>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="inlineStr"/>
+      <c r="B758" t="inlineStr">
+        <is>
+          <t>inv_078 → 01_HOOFD_030_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="inlineStr"/>
+      <c r="B759" t="inlineStr">
+        <is>
+          <t>inv_005 → inv_123</t>
+        </is>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="inlineStr"/>
+      <c r="B760" t="inlineStr">
+        <is>
+          <t>01_HOOFD_510_2 → inv_87 → inv_33</t>
+        </is>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="inlineStr"/>
+      <c r="B761" t="inlineStr">
+        <is>
+          <t>inv_007 → 01_HOOFD_015</t>
+        </is>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="inlineStr"/>
+      <c r="B762" t="inlineStr">
+        <is>
+          <t>inv_105 → inv_078</t>
+        </is>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="inlineStr"/>
+      <c r="B763" t="inlineStr">
+        <is>
+          <t>01_HOOFD_430 → 01_HOOFD_015 → 01_HOOFD_020 → inv_086 → 03_GBH_005 → inv_065 → 05_EIND_010 → inv_004 → inv_026 → 01_HOOFD_110 → 01_HOOFD_120 → 01_HOOFD_180 → inv_137 → 08_AWB45_005 → inv_087 → inv_044</t>
+        </is>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="inlineStr"/>
+      <c r="B764" t="inlineStr">
+        <is>
+          <t>inv_093 → inv_123</t>
+        </is>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="inlineStr"/>
+      <c r="B765" t="inlineStr">
+        <is>
+          <t>01_HOOFD_200 → 01_HOOFD_330 → 09_AH_I_010 → inv_36 → 01_HOOFD_375 → inv_81 → 01_HOOFD_380 → 01_HOOFD_430 → 01_HOOFD_480 → 01_HOOFD_490_1 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_42 → 01_HOOFD_510_1 → inv_87 → inv_33</t>
+        </is>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="inlineStr"/>
+      <c r="B766" t="inlineStr">
+        <is>
+          <t>01_HOOFD_490_2 → 01_HOOFD_495</t>
+        </is>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="inlineStr"/>
+      <c r="B767" t="inlineStr">
+        <is>
+          <t>inv_145 → inv_123</t>
+        </is>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="inlineStr"/>
+      <c r="B768" t="inlineStr">
+        <is>
+          <t>01_HOOFD_065_2 → 01_HOOFD_510_1 → inv_065 → 01_BB_540 → 01_BB_770 → inv_047</t>
+        </is>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="inlineStr"/>
+      <c r="B769" t="inlineStr">
+        <is>
+          <t>inv_200 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
+        </is>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="inlineStr"/>
+      <c r="B770" t="inlineStr">
+        <is>
+          <t>inv_027 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
+        </is>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="inlineStr"/>
+      <c r="B771" t="inlineStr">
+        <is>
+          <t>inv_025 → 01_HOOFD_510_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="inlineStr"/>
+      <c r="B772" t="inlineStr">
+        <is>
+          <t>inv_083 → 01_HOOFD_510_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="inlineStr"/>
+      <c r="B773" t="inlineStr">
+        <is>
+          <t>inv_069 → 01_HOOFD_015 → 01_HOOFD_020 → inv_086 → 03_GBH_005 → inv_065 → 05_EIND_010 → inv_004 → inv_026 → 01_HOOFD_110 → 01_HOOFD_120 → 01_HOOFD_180 → inv_137 → 08_AWB45_005 → inv_087 → inv_044</t>
+        </is>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="inlineStr"/>
+      <c r="B774" t="inlineStr">
+        <is>
+          <t>01_HOOFD_200 → inv_123</t>
+        </is>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="inlineStr"/>
+      <c r="B775" t="inlineStr">
+        <is>
+          <t>inv_219 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
+        </is>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="inlineStr"/>
+      <c r="B776" t="inlineStr">
+        <is>
+          <t>inv_119 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
+        </is>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="inlineStr"/>
+      <c r="B777" t="inlineStr">
+        <is>
+          <t>01_HOOFD_375 → 01_HOOFD_510_1 → inv_065 → 01_BB_540 → 01_BB_770 → inv_047</t>
+        </is>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="inlineStr"/>
+      <c r="B778" t="inlineStr">
+        <is>
+          <t>inv_078 → inv_044 → 01_HOOFD_180 → 01_HOOFD_200 → inv_001 → inv_011 → 01_HOOFD_330 → 09_AH_I_010 → inv_112 → 01_HOOFD_370 → inv_075 → 11_AH_II_010 → inv_050 → 01_HOOFD_480 → 01_HOOFD_490_1 → inv_074 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_080 → 01_HOOFD_510_2 → 01_BB_540 → inv_029</t>
+        </is>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="inlineStr"/>
+      <c r="B779" t="inlineStr">
+        <is>
+          <t>01_HOOFD_810 → 01_HOOFD_015 → 01_HOOFD_020 → inv_086 → 03_GBH_005 → inv_065 → 05_EIND_010 → inv_004 → inv_026 → 01_HOOFD_110 → 01_HOOFD_120 → 01_HOOFD_180 → inv_137 → 08_AWB45_005 → inv_087 → inv_044</t>
+        </is>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="inlineStr"/>
+      <c r="B780" t="inlineStr">
+        <is>
+          <t>inv_086 → 01_HOOFD_015 → 01_HOOFD_020 → inv_086 → 03_GBH_005 → inv_065 → 05_EIND_010 → inv_004 → inv_026 → 01_HOOFD_110 → 01_HOOFD_120 → 01_HOOFD_180 → inv_137 → 08_AWB45_005 → inv_087 → inv_044</t>
+        </is>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="inlineStr"/>
+      <c r="B781" t="inlineStr">
+        <is>
+          <t>inv_052 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
+        </is>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="inlineStr"/>
+      <c r="B782" t="inlineStr">
+        <is>
+          <t>inv_121 → inv_123 → inv_186 → 01_HOOFD_490_1 → inv_220 → inv_084 → inv_226 → 01_HOOFD_065_2 → inv_219 → 01_HOOFD_101 → inv_127 → inv_222 → inv_158 → 01_HOOFD_010 → inv_227 → inv_068 → inv_174 → inv_191 → 01_HOOFD_330 → inv_005 → 01_HOOFD_370 → inv_114 → inv_018 → inv_145 → inv_159</t>
+        </is>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="inlineStr"/>
+      <c r="B783" t="inlineStr">
+        <is>
+          <t>01_HOOFD_011 → 01_HOOFD_030_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="inlineStr"/>
+      <c r="B784" t="inlineStr">
+        <is>
+          <t>Evaluate Size of Order (EO) → Prepare Special Bill (PB)</t>
+        </is>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="inlineStr"/>
+      <c r="B785" t="inlineStr">
+        <is>
+          <t>inv_086 → 01_HOOFD_510_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="inlineStr"/>
+      <c r="B786" t="inlineStr">
+        <is>
+          <t>inv_191 → inv_123</t>
+        </is>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="inlineStr"/>
+      <c r="B787" t="inlineStr">
+        <is>
+          <t>inv_100 → 01_HOOFD_510_1 → inv_065 → 01_BB_540 → 01_BB_770 → inv_047</t>
+        </is>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="inlineStr"/>
+      <c r="B788" t="inlineStr">
+        <is>
+          <t>inv_092 → inv_053</t>
+        </is>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="inlineStr"/>
+      <c r="B789" t="inlineStr">
+        <is>
+          <t>inv_016 → 01_HOOFD_510_1 → inv_065 → 01_BB_540 → 01_BB_770 → inv_047</t>
+        </is>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="inlineStr"/>
+      <c r="B790" t="inlineStr">
+        <is>
+          <t>inv_049 → 01_HOOFD_510_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="inlineStr"/>
+      <c r="B791" t="inlineStr">
+        <is>
+          <t>inv_104 → 01_HOOFD_015 → 01_HOOFD_020 → inv_086 → 03_GBH_005 → inv_065 → 05_EIND_010 → inv_004 → inv_026 → 01_HOOFD_110 → 01_HOOFD_120 → 01_HOOFD_180 → inv_137 → 08_AWB45_005 → inv_087 → inv_044</t>
+        </is>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="inlineStr"/>
+      <c r="B792" t="inlineStr">
+        <is>
+          <t>03_GBH_005 → inv_85</t>
+        </is>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="inlineStr"/>
+      <c r="B793" t="inlineStr">
+        <is>
+          <t>inv_110 → 04_BPT_005</t>
+        </is>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="inlineStr"/>
+      <c r="B794" t="inlineStr">
+        <is>
+          <t>01_HOOFD_065_2 → inv_123</t>
+        </is>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="inlineStr"/>
+      <c r="B795" t="inlineStr">
+        <is>
+          <t>01_HOOFD_065_1 → inv_123</t>
+        </is>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="inlineStr"/>
+      <c r="B796" t="inlineStr">
+        <is>
+          <t>inv_092 → 01_HOOFD_015</t>
+        </is>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="inlineStr"/>
+      <c r="B797" t="inlineStr">
+        <is>
+          <t>inv_062 → 01_HOOFD_015</t>
+        </is>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="inlineStr"/>
+      <c r="B798" t="inlineStr">
+        <is>
+          <t>09_AH_I_010 → inv_123</t>
+        </is>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="inlineStr"/>
+      <c r="B799" t="inlineStr">
+        <is>
+          <t>inv_09 → 01_HOOFD_195 → inv_30 → 01_HOOFD_200 → 01_HOOFD_330 → 09_AH_I_010 → inv_36 → 01_HOOFD_375 → inv_81 → 01_HOOFD_380 → 01_HOOFD_430 → 01_HOOFD_480 → 01_HOOFD_490_1 → 01_HOOFD_490_2 → 01_HOOFD_495 → inv_42 → 01_HOOFD_510_1 → inv_87 → inv_33</t>
+        </is>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="inlineStr"/>
+      <c r="B800" t="inlineStr">
+        <is>
+          <t>01_HOOFD_020 → inv_092</t>
+        </is>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="inlineStr"/>
+      <c r="B801" t="inlineStr">
+        <is>
+          <t>inv_85 → 02_DRZ_010</t>
+        </is>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="inlineStr"/>
+      <c r="B802" t="inlineStr">
+        <is>
+          <t>02_DRZ_010 → inv_14</t>
         </is>
       </c>
     </row>
